--- a/配置表/G怪物配置表2.xlsx
+++ b/配置表/G怪物配置表2.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334">
   <si>
     <t>MonsterFightConfig</t>
   </si>
@@ -1077,6 +1077,9 @@
     <t>CreepMeleeAI</t>
   </si>
   <si>
+    <t>models/Creep_Melee_Red</t>
+  </si>
+  <si>
     <t>按照血量百分比释放的技能</t>
   </si>
   <si>
@@ -1175,12 +1178,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1195,29 +1198,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3364A4"/>
       <name val="Menlo"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1257,6 +1240,66 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -1272,42 +1315,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1321,21 +1340,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1374,25 +1387,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,19 +1417,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,7 +1447,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,79 +1471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,13 +1495,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,7 +1549,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,36 +1618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1667,11 +1650,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1685,159 +1681,182 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1881,12 +1900,9 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1897,43 +1913,45 @@
     <cellStyle name="差" xfId="7" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1947,7 +1965,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -2292,14 +2309,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:AJ84"/>
+  <dimension ref="B1:AJ85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="11340" ySplit="3780" topLeftCell="F61" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I84" sqref="I84"/>
+      <selection pane="bottomRight" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6862,7 +6879,7 @@
         <v>99</v>
       </c>
       <c r="H67" s="8"/>
-      <c r="I67" s="16" t="s">
+      <c r="I67" s="15" t="s">
         <v>253</v>
       </c>
       <c r="J67" s="8"/>
@@ -7445,7 +7462,7 @@
         <v>275</v>
       </c>
       <c r="H76" s="8"/>
-      <c r="I76" s="16" t="s">
+      <c r="I76" s="15" t="s">
         <v>276</v>
       </c>
       <c r="J76" s="8"/>
@@ -7516,7 +7533,7 @@
         <v>279</v>
       </c>
       <c r="H77" s="8"/>
-      <c r="I77" s="16" t="s">
+      <c r="I77" s="15" t="s">
         <v>276</v>
       </c>
       <c r="J77" s="8"/>
@@ -7585,7 +7602,7 @@
         <v>281</v>
       </c>
       <c r="H78" s="8"/>
-      <c r="I78" s="16" t="s">
+      <c r="I78" s="15" t="s">
         <v>282</v>
       </c>
       <c r="J78" s="8"/>
@@ -7656,7 +7673,7 @@
         <v>285</v>
       </c>
       <c r="H79" s="8"/>
-      <c r="I79" s="16" t="s">
+      <c r="I79" s="15" t="s">
         <v>286</v>
       </c>
       <c r="J79" s="8"/>
@@ -7727,7 +7744,7 @@
         <v>281</v>
       </c>
       <c r="H80" s="8"/>
-      <c r="I80" s="16" t="s">
+      <c r="I80" s="15" t="s">
         <v>289</v>
       </c>
       <c r="J80" s="8"/>
@@ -7787,18 +7804,18 @@
       <c r="C81" s="8">
         <v>56</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="13" t="s">
         <v>290</v>
       </c>
       <c r="E81" s="8">
         <v>19</v>
       </c>
       <c r="F81" s="8"/>
-      <c r="G81" s="15" t="s">
+      <c r="G81" s="13" t="s">
         <v>291</v>
       </c>
       <c r="H81" s="8"/>
-      <c r="I81" s="16" t="s">
+      <c r="I81" s="15" t="s">
         <v>292</v>
       </c>
       <c r="J81" s="8"/>
@@ -7811,7 +7828,7 @@
       <c r="M81" s="8">
         <v>20</v>
       </c>
-      <c r="N81" s="15" t="s">
+      <c r="N81" s="13" t="s">
         <v>293</v>
       </c>
       <c r="O81" s="8"/>
@@ -7858,18 +7875,18 @@
       <c r="C82" s="8">
         <v>57</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="13" t="s">
         <v>294</v>
       </c>
       <c r="E82" s="8">
         <v>19</v>
       </c>
       <c r="F82" s="8"/>
-      <c r="G82" s="15" t="s">
+      <c r="G82" s="13" t="s">
         <v>295</v>
       </c>
       <c r="H82" s="8"/>
-      <c r="I82" s="16" t="s">
+      <c r="I82" s="15" t="s">
         <v>296</v>
       </c>
       <c r="J82" s="8"/>
@@ -7882,7 +7899,7 @@
       <c r="M82" s="8">
         <v>20</v>
       </c>
-      <c r="N82" s="15" t="s">
+      <c r="N82" s="13" t="s">
         <v>293</v>
       </c>
       <c r="O82" s="8"/>
@@ -7929,18 +7946,18 @@
       <c r="C83" s="8">
         <v>58</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="13" t="s">
         <v>297</v>
       </c>
       <c r="E83" s="8">
         <v>19</v>
       </c>
       <c r="F83" s="8"/>
-      <c r="G83" s="15" t="s">
+      <c r="G83" s="13" t="s">
         <v>298</v>
       </c>
       <c r="H83" s="8"/>
-      <c r="I83" s="16" t="s">
+      <c r="I83" s="15" t="s">
         <v>299</v>
       </c>
       <c r="J83" s="8"/>
@@ -7953,7 +7970,7 @@
       <c r="M83" s="8">
         <v>20</v>
       </c>
-      <c r="N83" s="15" t="s">
+      <c r="N83" s="13" t="s">
         <v>293</v>
       </c>
       <c r="O83" s="8"/>
@@ -8000,18 +8017,18 @@
       <c r="C84" s="8">
         <v>59</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="13" t="s">
         <v>300</v>
       </c>
       <c r="E84" s="8">
         <v>19</v>
       </c>
       <c r="F84" s="8"/>
-      <c r="G84" s="15" t="s">
+      <c r="G84" s="13" t="s">
         <v>301</v>
       </c>
       <c r="H84" s="8"/>
-      <c r="I84" s="16" t="s">
+      <c r="I84" s="15" t="s">
         <v>302</v>
       </c>
       <c r="J84" s="8"/>
@@ -8024,7 +8041,7 @@
       <c r="M84" s="8">
         <v>20</v>
       </c>
-      <c r="N84" s="15" t="s">
+      <c r="N84" s="13" t="s">
         <v>293</v>
       </c>
       <c r="O84" s="8"/>
@@ -8059,12 +8076,81 @@
       <c r="AD84" s="8"/>
       <c r="AE84" s="8"/>
       <c r="AF84" s="8"/>
-      <c r="AG84" s="1"/>
-      <c r="AH84" s="1"/>
       <c r="AI84" s="1">
         <v>13</v>
       </c>
       <c r="AJ84" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="14.25" spans="2:36">
+      <c r="B85" s="7"/>
+      <c r="C85" s="8">
+        <v>60</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E85" s="8">
+        <v>19</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="H85" s="8"/>
+      <c r="I85" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8">
+        <v>8</v>
+      </c>
+      <c r="L85" s="8">
+        <v>55</v>
+      </c>
+      <c r="M85" s="8">
+        <v>20</v>
+      </c>
+      <c r="N85" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8">
+        <v>10000</v>
+      </c>
+      <c r="Q85" s="8">
+        <v>1500</v>
+      </c>
+      <c r="R85" s="8">
+        <v>20</v>
+      </c>
+      <c r="S85" s="8">
+        <v>1</v>
+      </c>
+      <c r="T85" s="8">
+        <v>0</v>
+      </c>
+      <c r="U85" s="8">
+        <v>0</v>
+      </c>
+      <c r="V85" s="8">
+        <v>99999</v>
+      </c>
+      <c r="W85" s="8"/>
+      <c r="X85" s="8"/>
+      <c r="Y85" s="8"/>
+      <c r="Z85" s="8"/>
+      <c r="AA85" s="8"/>
+      <c r="AB85" s="8"/>
+      <c r="AC85" s="8"/>
+      <c r="AD85" s="8"/>
+      <c r="AE85" s="8"/>
+      <c r="AF85" s="8"/>
+      <c r="AI85" s="1">
+        <v>13</v>
+      </c>
+      <c r="AJ85" s="14" t="s">
         <v>85</v>
       </c>
     </row>
@@ -8094,12 +8180,12 @@
   <sheetData>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8136,20 +8222,20 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -8181,10 +8267,10 @@
     <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -8193,10 +8279,10 @@
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -8824,10 +8910,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="2:10">
       <c r="B1" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -8856,7 +8942,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:8">
@@ -8879,7 +8965,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:8">
@@ -8902,7 +8988,7 @@
         <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
@@ -8949,14 +9035,14 @@
         <v>20001</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H7" s="8">
         <v>100</v>
@@ -8968,14 +9054,14 @@
         <v>20002</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H8" s="8">
         <v>100</v>
@@ -8987,14 +9073,14 @@
         <v>20003</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H9" s="8">
         <v>100</v>
@@ -9006,14 +9092,14 @@
         <v>20004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H10" s="8">
         <v>100</v>
@@ -9025,14 +9111,14 @@
         <v>20005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H11" s="8">
         <v>100</v>
@@ -9044,14 +9130,14 @@
         <v>20006</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H12" s="8">
         <v>100</v>
@@ -9063,14 +9149,14 @@
         <v>20007</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H13" s="8">
         <v>100</v>
@@ -9082,14 +9168,14 @@
         <v>20008</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H14" s="8">
         <v>100</v>
@@ -9101,14 +9187,14 @@
         <v>20009</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H15" s="8">
         <v>100</v>

--- a/配置表/G怪物配置表2.xlsx
+++ b/配置表/G怪物配置表2.xlsx
@@ -1179,9 +1179,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1204,7 +1204,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1239,92 +1239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1347,8 +1263,92 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1387,7 +1387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,25 +1405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,19 +1429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,7 +1459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,13 +1477,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,85 +1537,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,6 +1619,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1633,17 +1663,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1651,8 +1677,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1675,34 +1701,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1714,10 +1714,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1726,19 +1726,19 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1747,112 +1747,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1987,7 +1987,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2312,11 +2312,11 @@
   <dimension ref="B1:AJ85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="11340" ySplit="3780" topLeftCell="F61" activePane="bottomRight"/>
+      <pane xSplit="11340" ySplit="3780" topLeftCell="P61" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G86" sqref="G86"/>
+      <selection pane="bottomRight" activeCell="U85" sqref="U85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8055,16 +8055,16 @@
         <v>20</v>
       </c>
       <c r="S84" s="8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T84" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U84" s="8">
         <v>0</v>
       </c>
       <c r="V84" s="8">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="W84" s="8"/>
       <c r="X84" s="8"/>
@@ -8126,16 +8126,16 @@
         <v>20</v>
       </c>
       <c r="S85" s="8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T85" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U85" s="8">
         <v>0</v>
       </c>
       <c r="V85" s="8">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="W85" s="8"/>
       <c r="X85" s="8"/>

--- a/配置表/G怪物配置表2.xlsx
+++ b/配置表/G怪物配置表2.xlsx
@@ -38,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341">
   <si>
     <t>MonsterFightConfig</t>
   </si>
@@ -164,6 +164,9 @@
     <t>出生时粒子效果</t>
   </si>
   <si>
+    <t>NPC配置模版</t>
+  </si>
+  <si>
     <t>逻辑模版</t>
   </si>
   <si>
@@ -258,6 +261,9 @@
   </si>
   <si>
     <t>spawnParticle</t>
+  </si>
+  <si>
+    <t>NpcConfig</t>
   </si>
   <si>
     <t>LogicTemplate</t>
@@ -1074,10 +1080,28 @@
     <t>models/Creep_Melee_Blue</t>
   </si>
   <si>
+    <t>MeleeConfig</t>
+  </si>
+  <si>
     <t>CreepMeleeAI</t>
   </si>
   <si>
     <t>models/Creep_Melee_Red</t>
+  </si>
+  <si>
+    <t>MeleeConfig2</t>
+  </si>
+  <si>
+    <t>防御塔</t>
+  </si>
+  <si>
+    <t>models/Tower</t>
+  </si>
+  <si>
+    <t>towerConfig</t>
+  </si>
+  <si>
+    <t>TowerAI</t>
   </si>
   <si>
     <t>按照血量百分比释放的技能</t>
@@ -1108,9 +1132,6 @@
   </si>
   <si>
     <t>等级</t>
-  </si>
-  <si>
-    <t>NpcConfig</t>
   </si>
   <si>
     <t>关卡*100+id</t>
@@ -2309,14 +2330,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:AJ85"/>
+  <dimension ref="B1:AK86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="11340" ySplit="3780" topLeftCell="P61" activePane="bottomRight"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U85" sqref="U85"/>
+    <sheetView tabSelected="1" topLeftCell="E63" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2329,31 +2346,32 @@
     <col min="6" max="6" width="29.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="35.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="36.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="34.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="25.125" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="31.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="93.625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="59.625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="7.625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="19.125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="3" customWidth="1"/>
-    <col min="19" max="20" width="7.625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="21.375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="7.625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="7.625" style="3" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="11.125" style="3" hidden="1" customWidth="1"/>
-    <col min="25" max="27" width="10.125" style="3" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="9.375" style="3" hidden="1" customWidth="1"/>
-    <col min="29" max="31" width="8.5" style="3" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="10.125" style="3" hidden="1" customWidth="1"/>
-    <col min="33" max="34" width="9" style="1"/>
-    <col min="35" max="35" width="13.625" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="1"/>
+    <col min="9" max="10" width="34.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="31.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="93.625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="59.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="19.125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.125" style="3" customWidth="1"/>
+    <col min="20" max="21" width="7.625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="21.375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="7.625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="7.625" style="3" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="11.125" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="28" width="10.125" style="3" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="9.375" style="3" hidden="1" customWidth="1"/>
+    <col min="30" max="31" width="8.5" style="3" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="11.375" style="3" customWidth="1"/>
+    <col min="33" max="33" width="13.125" style="3" customWidth="1"/>
+    <col min="34" max="35" width="9" style="1"/>
+    <col min="36" max="36" width="13.625" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="2:34">
+    <row r="1" ht="27" customHeight="1" spans="2:35">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2375,19 +2393,22 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2396,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:36">
+    <row r="3" spans="2:37">
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2490,336 +2511,348 @@
       <c r="AF3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="14" t="s">
+      <c r="AG3" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="2:32">
+      <c r="AK3" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33">
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG4" s="2"/>
+    </row>
+    <row r="5" spans="2:33">
+      <c r="B5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33">
+      <c r="B6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF4" s="2"/>
-    </row>
-    <row r="5" spans="2:32">
-      <c r="B5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="2:32">
-      <c r="B6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="2:36">
+        <v>74</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37">
       <c r="B7" s="7"/>
       <c r="C7" s="8">
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E7" s="8">
         <v>19</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8">
+        <v>85</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8">
         <v>3</v>
       </c>
-      <c r="L7" s="8">
+      <c r="M7" s="8">
         <v>5</v>
       </c>
-      <c r="M7" s="8">
-        <v>20</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8">
+      <c r="N7" s="8">
+        <v>20</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8">
         <v>200</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="R7" s="8">
         <v>500</v>
       </c>
-      <c r="R7" s="8">
-        <v>20</v>
-      </c>
       <c r="S7" s="8">
         <v>20</v>
       </c>
       <c r="T7" s="8">
+        <v>20</v>
+      </c>
+      <c r="U7" s="8">
         <v>6</v>
       </c>
-      <c r="U7" s="8">
+      <c r="V7" s="8">
         <v>5</v>
       </c>
-      <c r="V7" s="8">
+      <c r="W7" s="8">
         <v>0</v>
       </c>
-      <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -2829,70 +2862,73 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
-      <c r="AI7" s="1">
+      <c r="AG7" s="8"/>
+      <c r="AJ7" s="1">
         <v>13</v>
       </c>
-      <c r="AJ7" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="2:32">
+      <c r="AK7" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33">
       <c r="B8" s="7"/>
       <c r="C8" s="8">
         <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E8" s="8">
         <v>19</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8">
+        <v>85</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8">
         <v>3</v>
       </c>
-      <c r="L8" s="8">
+      <c r="M8" s="8">
         <v>5</v>
       </c>
-      <c r="M8" s="8">
-        <v>20</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>84</v>
+      <c r="N8" s="8">
+        <v>20</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="P8" s="8">
+        <v>86</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="8">
         <v>250</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="R8" s="8">
         <v>500</v>
       </c>
-      <c r="R8" s="8">
+      <c r="S8" s="8">
         <v>30</v>
       </c>
-      <c r="S8" s="8">
+      <c r="T8" s="8">
         <v>40</v>
       </c>
-      <c r="T8" s="8">
+      <c r="U8" s="8">
         <v>12</v>
       </c>
-      <c r="U8" s="8">
+      <c r="V8" s="8">
         <v>40</v>
       </c>
-      <c r="V8" s="8">
+      <c r="W8" s="8">
         <v>0</v>
       </c>
-      <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
@@ -2902,62 +2938,65 @@
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
-    </row>
-    <row r="9" spans="2:32">
+      <c r="AG8" s="8"/>
+    </row>
+    <row r="9" spans="2:33">
       <c r="B9" s="7"/>
       <c r="C9" s="8">
         <v>113</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9" s="8">
         <v>27</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8">
+        <v>85</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8">
         <v>8</v>
       </c>
-      <c r="L9" s="8">
+      <c r="M9" s="8">
         <v>5</v>
       </c>
-      <c r="M9" s="8">
-        <v>20</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8">
+      <c r="N9" s="8">
+        <v>20</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8">
         <v>200</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="R9" s="8">
         <v>500</v>
       </c>
-      <c r="R9" s="8">
+      <c r="S9" s="8">
         <v>10</v>
       </c>
-      <c r="S9" s="8">
+      <c r="T9" s="8">
         <v>12</v>
       </c>
-      <c r="T9" s="8">
+      <c r="U9" s="8">
         <v>15</v>
       </c>
-      <c r="U9" s="8">
+      <c r="V9" s="8">
         <v>5</v>
       </c>
-      <c r="V9" s="8">
+      <c r="W9" s="8">
         <v>0</v>
       </c>
-      <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
@@ -2967,64 +3006,67 @@
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
       <c r="AF9" s="8"/>
-    </row>
-    <row r="10" customFormat="1" spans="2:36">
+      <c r="AG9" s="8"/>
+    </row>
+    <row r="10" customFormat="1" spans="2:37">
       <c r="B10" s="7"/>
       <c r="C10" s="8">
         <v>6</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E10" s="8">
         <v>19</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8">
+        <v>85</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8">
         <v>3</v>
       </c>
-      <c r="L10" s="8">
+      <c r="M10" s="8">
         <v>10</v>
       </c>
-      <c r="M10" s="8">
-        <v>20</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8">
+      <c r="N10" s="8">
+        <v>20</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8">
         <v>600</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="R10" s="8">
         <v>500</v>
       </c>
-      <c r="R10" s="8">
+      <c r="S10" s="8">
         <v>40</v>
       </c>
-      <c r="S10" s="8">
+      <c r="T10" s="8">
         <v>75</v>
       </c>
-      <c r="T10" s="8">
-        <v>20</v>
-      </c>
       <c r="U10" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V10" s="8">
         <v>5</v>
       </c>
-      <c r="W10" s="8"/>
+      <c r="W10" s="8">
+        <v>5</v>
+      </c>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
@@ -3034,70 +3076,73 @@
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
-      <c r="AI10" t="s">
-        <v>95</v>
-      </c>
+      <c r="AG10" s="8"/>
       <c r="AJ10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="2:32">
+        <v>97</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:33">
       <c r="B11" s="7"/>
       <c r="C11" s="8">
         <v>8</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E11" s="8">
         <v>104</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8">
+        <v>85</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8">
         <v>3</v>
       </c>
-      <c r="L11" s="8">
+      <c r="M11" s="8">
         <v>10</v>
       </c>
-      <c r="M11" s="8">
-        <v>20</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8">
+      <c r="N11" s="8">
+        <v>20</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8">
         <v>800</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="R11" s="8">
         <v>500</v>
       </c>
-      <c r="R11" s="8">
+      <c r="S11" s="8">
         <v>40</v>
       </c>
-      <c r="S11" s="8">
+      <c r="T11" s="8">
         <v>30</v>
       </c>
-      <c r="T11" s="8">
+      <c r="U11" s="8">
         <v>25</v>
       </c>
-      <c r="U11" s="8">
-        <v>20</v>
-      </c>
       <c r="V11" s="8">
+        <v>20</v>
+      </c>
+      <c r="W11" s="8">
         <v>0</v>
       </c>
-      <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
@@ -3107,62 +3152,65 @@
       <c r="AD11" s="8"/>
       <c r="AE11" s="8"/>
       <c r="AF11" s="8"/>
-    </row>
-    <row r="12" spans="2:32">
+      <c r="AG11" s="8"/>
+    </row>
+    <row r="12" spans="2:33">
       <c r="B12" s="7"/>
       <c r="C12" s="8">
         <v>103</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E12" s="8">
         <v>26</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8">
+        <v>85</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8">
         <v>8</v>
       </c>
-      <c r="L12" s="8">
+      <c r="M12" s="8">
         <v>10</v>
       </c>
-      <c r="M12" s="8">
-        <v>20</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8">
+      <c r="N12" s="8">
+        <v>20</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8">
         <v>1000</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="R12" s="8">
         <v>500</v>
       </c>
-      <c r="R12" s="8">
-        <v>20</v>
-      </c>
       <c r="S12" s="8">
+        <v>20</v>
+      </c>
+      <c r="T12" s="8">
         <v>45</v>
       </c>
-      <c r="T12" s="8">
+      <c r="U12" s="8">
         <v>30</v>
       </c>
-      <c r="U12" s="8">
+      <c r="V12" s="8">
         <v>5</v>
       </c>
-      <c r="V12" s="8">
+      <c r="W12" s="8">
         <v>10</v>
       </c>
-      <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
@@ -3172,126 +3220,132 @@
       <c r="AD12" s="8"/>
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
-    </row>
-    <row r="13" customFormat="1" spans="2:36">
+      <c r="AG12" s="8"/>
+    </row>
+    <row r="13" customFormat="1" spans="2:37">
       <c r="B13" s="7"/>
       <c r="C13" s="8">
         <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E13" s="8">
         <v>19</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8">
+        <v>85</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8">
         <v>3</v>
       </c>
-      <c r="L13" s="8">
+      <c r="M13" s="8">
         <v>15</v>
       </c>
-      <c r="M13" s="8">
-        <v>20</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8">
+      <c r="N13" s="8">
+        <v>20</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8">
         <v>1200</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="R13" s="8">
         <v>500</v>
       </c>
-      <c r="R13" s="8">
+      <c r="S13" s="8">
         <v>15</v>
       </c>
-      <c r="S13" s="8">
+      <c r="T13" s="8">
         <v>150</v>
       </c>
-      <c r="T13" s="8">
-        <v>20</v>
-      </c>
       <c r="U13" s="8">
+        <v>20</v>
+      </c>
+      <c r="V13" s="8">
         <v>5</v>
       </c>
-      <c r="V13" s="8">
+      <c r="W13" s="8">
         <v>10</v>
       </c>
-      <c r="AH13" t="s">
-        <v>106</v>
-      </c>
       <c r="AI13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="2:32">
+        <v>109</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33">
       <c r="B14" s="7"/>
       <c r="C14" s="8">
         <v>119</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E14" s="8">
         <v>18</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8">
+        <v>85</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8">
         <v>8</v>
       </c>
-      <c r="L14" s="8">
+      <c r="M14" s="8">
         <v>15</v>
       </c>
-      <c r="M14" s="8">
-        <v>20</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8">
+      <c r="N14" s="8">
+        <v>20</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8">
         <v>2000</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="R14" s="8">
         <v>500</v>
       </c>
-      <c r="R14" s="8">
+      <c r="S14" s="8">
         <v>50</v>
       </c>
-      <c r="S14" s="8">
+      <c r="T14" s="8">
         <v>60</v>
       </c>
-      <c r="T14" s="8">
+      <c r="U14" s="8">
         <v>38</v>
       </c>
-      <c r="U14" s="8">
+      <c r="V14" s="8">
         <v>5</v>
       </c>
-      <c r="V14" s="8">
+      <c r="W14" s="8">
         <v>0</v>
       </c>
-      <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
@@ -3301,62 +3355,65 @@
       <c r="AD14" s="8"/>
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
-    </row>
-    <row r="15" spans="2:32">
+      <c r="AG14" s="8"/>
+    </row>
+    <row r="15" spans="2:33">
       <c r="B15" s="7"/>
       <c r="C15" s="8">
         <v>306</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E15" s="8">
         <v>19</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8">
+        <v>85</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8">
         <v>3</v>
       </c>
-      <c r="L15" s="8">
+      <c r="M15" s="8">
         <v>15</v>
       </c>
-      <c r="M15" s="8">
-        <v>20</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8">
+      <c r="N15" s="8">
+        <v>20</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8">
         <v>2000</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="R15" s="8">
         <v>500</v>
       </c>
-      <c r="R15" s="8">
+      <c r="S15" s="8">
         <v>30</v>
       </c>
-      <c r="S15" s="8">
+      <c r="T15" s="8">
         <v>120</v>
       </c>
-      <c r="T15" s="8">
+      <c r="U15" s="8">
         <v>28</v>
       </c>
-      <c r="U15" s="8">
+      <c r="V15" s="8">
         <v>5</v>
       </c>
-      <c r="V15" s="8">
-        <v>20</v>
-      </c>
-      <c r="W15" s="8"/>
+      <c r="W15" s="8">
+        <v>20</v>
+      </c>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
@@ -3366,237 +3423,249 @@
       <c r="AD15" s="8"/>
       <c r="AE15" s="8"/>
       <c r="AF15" s="8"/>
-    </row>
-    <row r="16" customFormat="1" spans="2:36">
+      <c r="AG15" s="8"/>
+    </row>
+    <row r="16" customFormat="1" spans="2:37">
       <c r="B16" s="7"/>
       <c r="C16" s="8">
         <v>11</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E16" s="8">
         <v>19</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8">
+        <v>85</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8">
         <v>3</v>
       </c>
-      <c r="L16" s="8">
-        <v>20</v>
-      </c>
       <c r="M16" s="8">
         <v>20</v>
       </c>
-      <c r="N16" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8">
+      <c r="N16" s="8">
+        <v>20</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8">
         <v>2000</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="R16" s="8">
         <v>500</v>
       </c>
-      <c r="R16" s="8">
-        <v>20</v>
-      </c>
       <c r="S16" s="8">
+        <v>20</v>
+      </c>
+      <c r="T16" s="8">
         <v>100</v>
-      </c>
-      <c r="T16" s="8">
-        <v>40</v>
       </c>
       <c r="U16" s="8">
         <v>40</v>
       </c>
       <c r="V16" s="8">
+        <v>40</v>
+      </c>
+      <c r="W16" s="8">
         <v>10</v>
       </c>
-      <c r="AI16" t="s">
-        <v>118</v>
-      </c>
       <c r="AJ16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="2:22">
+        <v>120</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="2:23">
       <c r="B17" s="7"/>
       <c r="C17" s="8">
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E17" s="8">
         <v>12</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8">
+        <v>85</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8">
         <v>5</v>
       </c>
-      <c r="L17" s="8">
-        <v>20</v>
-      </c>
       <c r="M17" s="8">
         <v>20</v>
       </c>
-      <c r="N17" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8">
+      <c r="N17" s="8">
+        <v>20</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8">
         <v>3000</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="R17" s="8">
         <v>500</v>
       </c>
-      <c r="R17" s="8">
+      <c r="S17" s="8">
         <v>30</v>
       </c>
-      <c r="S17" s="8">
+      <c r="T17" s="8">
         <v>150</v>
       </c>
-      <c r="T17" s="8">
+      <c r="U17" s="8">
         <v>50</v>
-      </c>
-      <c r="U17" s="8">
-        <v>10</v>
       </c>
       <c r="V17" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" customFormat="1" spans="2:22">
+      <c r="W17" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="2:23">
       <c r="B18" s="7"/>
       <c r="C18" s="8">
         <v>15</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E18" s="8">
         <v>105</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8">
+        <v>85</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8">
         <v>2</v>
       </c>
-      <c r="L18" s="8">
-        <v>20</v>
-      </c>
       <c r="M18" s="8">
         <v>20</v>
       </c>
-      <c r="N18" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8">
+      <c r="N18" s="8">
+        <v>20</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8">
         <v>4000</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="R18" s="8">
         <v>500</v>
       </c>
-      <c r="R18" s="8">
-        <v>20</v>
-      </c>
       <c r="S18" s="8">
+        <v>20</v>
+      </c>
+      <c r="T18" s="8">
         <v>200</v>
       </c>
-      <c r="T18" s="8">
+      <c r="U18" s="8">
         <v>40</v>
       </c>
-      <c r="U18" s="8">
-        <v>20</v>
-      </c>
       <c r="V18" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="2:36">
+      <c r="W18" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37">
       <c r="B19" s="7"/>
       <c r="C19" s="8">
         <v>1004</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E19" s="8">
         <v>19</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8">
+        <v>85</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8">
         <v>3</v>
       </c>
-      <c r="L19" s="8">
+      <c r="M19" s="8">
         <v>10</v>
       </c>
-      <c r="M19" s="8">
-        <v>20</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8">
+      <c r="N19" s="8">
+        <v>20</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8">
         <v>800</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="R19" s="8">
         <v>500</v>
       </c>
-      <c r="R19" s="8">
-        <v>20</v>
-      </c>
       <c r="S19" s="8">
+        <v>20</v>
+      </c>
+      <c r="T19" s="8">
         <v>80</v>
       </c>
-      <c r="T19" s="8">
+      <c r="U19" s="8">
         <v>12</v>
       </c>
-      <c r="U19" s="8">
+      <c r="V19" s="8">
         <v>5</v>
       </c>
-      <c r="V19" s="8">
+      <c r="W19" s="8">
         <v>0</v>
       </c>
-      <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
@@ -3606,72 +3675,75 @@
       <c r="AD19" s="8"/>
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
-      <c r="AI19" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="AG19" s="8"/>
       <c r="AJ19" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="2:32">
+        <v>129</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33">
       <c r="B20" s="7"/>
       <c r="C20" s="8">
         <v>1018</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E20" s="8">
         <v>19</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8">
+        <v>85</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8">
         <v>3</v>
       </c>
-      <c r="L20" s="8">
+      <c r="M20" s="8">
         <v>10</v>
       </c>
-      <c r="M20" s="8">
-        <v>20</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>131</v>
+      <c r="N20" s="8">
+        <v>20</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="P20" s="8">
+        <v>133</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q20" s="8">
         <v>1000</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="R20" s="8">
         <v>500</v>
       </c>
-      <c r="R20" s="8">
+      <c r="S20" s="8">
         <v>30</v>
       </c>
-      <c r="S20" s="8">
+      <c r="T20" s="8">
         <v>160</v>
       </c>
-      <c r="T20" s="8">
+      <c r="U20" s="8">
         <v>16</v>
       </c>
-      <c r="U20" s="8">
-        <v>20</v>
-      </c>
       <c r="V20" s="8">
+        <v>20</v>
+      </c>
+      <c r="W20" s="8">
         <v>0</v>
       </c>
-      <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
@@ -3681,64 +3753,67 @@
       <c r="AD20" s="8"/>
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
-    </row>
-    <row r="21" spans="2:32">
+      <c r="AG20" s="8"/>
+    </row>
+    <row r="21" spans="2:33">
       <c r="B21" s="7"/>
       <c r="C21" s="8">
         <v>1113</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E21" s="8">
         <v>27</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8">
+        <v>85</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8">
         <v>8</v>
       </c>
-      <c r="L21" s="8">
+      <c r="M21" s="8">
         <v>10</v>
       </c>
-      <c r="M21" s="8">
-        <v>20</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8">
+      <c r="N21" s="8">
+        <v>20</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8">
         <v>800</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="R21" s="8">
         <v>500</v>
       </c>
-      <c r="R21" s="8">
+      <c r="S21" s="8">
         <v>10</v>
       </c>
-      <c r="S21" s="8">
+      <c r="T21" s="8">
         <v>48</v>
       </c>
-      <c r="T21" s="8">
-        <v>20</v>
-      </c>
       <c r="U21" s="8">
+        <v>20</v>
+      </c>
+      <c r="V21" s="8">
         <v>5</v>
       </c>
-      <c r="V21" s="8">
+      <c r="W21" s="8">
         <v>0</v>
       </c>
-      <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
@@ -3748,64 +3823,67 @@
       <c r="AD21" s="8"/>
       <c r="AE21" s="8"/>
       <c r="AF21" s="8"/>
-    </row>
-    <row r="22" customFormat="1" spans="2:32">
+      <c r="AG21" s="8"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:33">
       <c r="B22" s="7"/>
       <c r="C22" s="8">
         <v>1006</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E22" s="8">
         <v>19</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8">
+        <v>85</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8">
         <v>3</v>
       </c>
-      <c r="L22" s="8">
+      <c r="M22" s="8">
         <v>15</v>
       </c>
-      <c r="M22" s="8">
-        <v>20</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8">
+      <c r="N22" s="8">
+        <v>20</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8">
         <v>2400</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="R22" s="8">
         <v>500</v>
       </c>
-      <c r="R22" s="8">
+      <c r="S22" s="8">
         <v>40</v>
       </c>
-      <c r="S22" s="8">
+      <c r="T22" s="8">
         <v>160</v>
       </c>
-      <c r="T22" s="8">
-        <v>20</v>
-      </c>
       <c r="U22" s="8">
+        <v>20</v>
+      </c>
+      <c r="V22" s="8">
         <v>5</v>
       </c>
-      <c r="V22" s="8">
+      <c r="W22" s="8">
         <v>10</v>
       </c>
-      <c r="W22" s="8"/>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
@@ -3815,64 +3893,67 @@
       <c r="AD22" s="8"/>
       <c r="AE22" s="8"/>
       <c r="AF22" s="8"/>
-    </row>
-    <row r="23" customFormat="1" spans="2:32">
+      <c r="AG22" s="8"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:33">
       <c r="B23" s="7"/>
       <c r="C23" s="8">
         <v>10061</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E23" s="8">
         <v>19</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8">
+        <v>85</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8">
         <v>3</v>
       </c>
-      <c r="L23" s="8">
+      <c r="M23" s="8">
         <v>15</v>
       </c>
-      <c r="M23" s="8">
-        <v>20</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8">
+      <c r="N23" s="8">
+        <v>20</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8">
         <v>2800</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="R23" s="8">
         <v>500</v>
       </c>
-      <c r="R23" s="8">
+      <c r="S23" s="8">
         <v>40</v>
       </c>
-      <c r="S23" s="8">
+      <c r="T23" s="8">
         <v>160</v>
       </c>
-      <c r="T23" s="8">
-        <v>20</v>
-      </c>
       <c r="U23" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V23" s="8">
         <v>10</v>
       </c>
-      <c r="W23" s="8"/>
+      <c r="W23" s="8">
+        <v>10</v>
+      </c>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
@@ -3882,64 +3963,67 @@
       <c r="AD23" s="8"/>
       <c r="AE23" s="8"/>
       <c r="AF23" s="8"/>
-    </row>
-    <row r="24" customFormat="1" spans="2:35">
+      <c r="AG23" s="8"/>
+    </row>
+    <row r="24" customFormat="1" spans="2:36">
       <c r="B24" s="7"/>
       <c r="C24" s="8">
         <v>10062</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E24" s="8">
         <v>19</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8">
+        <v>85</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8">
         <v>3</v>
       </c>
-      <c r="L24" s="8">
+      <c r="M24" s="8">
         <v>15</v>
       </c>
-      <c r="M24" s="8">
-        <v>20</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8">
+      <c r="N24" s="8">
+        <v>20</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8">
         <v>2800</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="R24" s="8">
         <v>500</v>
       </c>
-      <c r="R24" s="8">
+      <c r="S24" s="8">
         <v>40</v>
       </c>
-      <c r="S24" s="8">
+      <c r="T24" s="8">
         <v>200</v>
       </c>
-      <c r="T24" s="8">
-        <v>20</v>
-      </c>
       <c r="U24" s="8">
+        <v>20</v>
+      </c>
+      <c r="V24" s="8">
         <v>5</v>
       </c>
-      <c r="V24" s="8">
+      <c r="W24" s="8">
         <v>10</v>
       </c>
-      <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
@@ -3949,67 +4033,70 @@
       <c r="AD24" s="8"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
-      <c r="AI24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="2:32">
+      <c r="AG24" s="8"/>
+      <c r="AJ24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="2:33">
       <c r="B25" s="7"/>
       <c r="C25" s="8">
         <v>1008</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E25" s="8">
         <v>104</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8">
+        <v>85</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8">
         <v>3</v>
       </c>
-      <c r="L25" s="8">
+      <c r="M25" s="8">
         <v>15</v>
       </c>
-      <c r="M25" s="8">
-        <v>20</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8">
+      <c r="N25" s="8">
+        <v>20</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8">
         <v>3200</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="R25" s="8">
         <v>500</v>
       </c>
-      <c r="R25" s="8">
+      <c r="S25" s="8">
         <v>40</v>
       </c>
-      <c r="S25" s="8">
+      <c r="T25" s="8">
         <v>120</v>
       </c>
-      <c r="T25" s="8">
+      <c r="U25" s="8">
         <v>35</v>
       </c>
-      <c r="U25" s="8">
+      <c r="V25" s="8">
         <v>25</v>
       </c>
-      <c r="V25" s="8">
+      <c r="W25" s="8">
         <v>0</v>
       </c>
-      <c r="W25" s="8"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
@@ -4019,64 +4106,67 @@
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
       <c r="AF25" s="8"/>
-    </row>
-    <row r="26" customFormat="1" spans="2:32">
+      <c r="AG25" s="8"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:33">
       <c r="B26" s="7"/>
       <c r="C26" s="8">
         <v>10081</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E26" s="8">
         <v>104</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8">
+        <v>85</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8">
         <v>3</v>
       </c>
-      <c r="L26" s="8">
+      <c r="M26" s="8">
         <v>15</v>
       </c>
-      <c r="M26" s="8">
-        <v>20</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8">
+      <c r="N26" s="8">
+        <v>20</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8">
         <v>3200</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="R26" s="8">
         <v>500</v>
       </c>
-      <c r="R26" s="8">
+      <c r="S26" s="8">
         <v>40</v>
       </c>
-      <c r="S26" s="8">
+      <c r="T26" s="8">
         <v>100</v>
       </c>
-      <c r="T26" s="8">
+      <c r="U26" s="8">
         <v>35</v>
       </c>
-      <c r="U26" s="8">
+      <c r="V26" s="8">
         <v>30</v>
       </c>
-      <c r="V26" s="8">
+      <c r="W26" s="8">
         <v>0</v>
       </c>
-      <c r="W26" s="8"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
@@ -4086,64 +4176,67 @@
       <c r="AD26" s="8"/>
       <c r="AE26" s="8"/>
       <c r="AF26" s="8"/>
-    </row>
-    <row r="27" customFormat="1" spans="2:32">
+      <c r="AG26" s="8"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:33">
       <c r="B27" s="7"/>
       <c r="C27" s="8">
         <v>10082</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E27" s="8">
         <v>104</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8">
+        <v>85</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8">
         <v>3</v>
       </c>
-      <c r="L27" s="8">
+      <c r="M27" s="8">
         <v>15</v>
       </c>
-      <c r="M27" s="8">
-        <v>20</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8">
+      <c r="N27" s="8">
+        <v>20</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8">
         <v>3200</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="R27" s="8">
         <v>500</v>
       </c>
-      <c r="R27" s="8">
+      <c r="S27" s="8">
         <v>40</v>
       </c>
-      <c r="S27" s="8">
+      <c r="T27" s="8">
         <v>80</v>
       </c>
-      <c r="T27" s="8">
+      <c r="U27" s="8">
         <v>35</v>
       </c>
-      <c r="U27" s="8">
+      <c r="V27" s="8">
         <v>50</v>
       </c>
-      <c r="V27" s="8">
+      <c r="W27" s="8">
         <v>0</v>
       </c>
-      <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
@@ -4153,64 +4246,67 @@
       <c r="AD27" s="8"/>
       <c r="AE27" s="8"/>
       <c r="AF27" s="8"/>
-    </row>
-    <row r="28" customFormat="1" spans="2:32">
+      <c r="AG27" s="8"/>
+    </row>
+    <row r="28" customFormat="1" spans="2:33">
       <c r="B28" s="7"/>
       <c r="C28" s="8">
         <v>10083</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E28" s="8">
         <v>104</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8">
+        <v>85</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8">
         <v>4</v>
       </c>
-      <c r="L28" s="8">
+      <c r="M28" s="8">
         <v>15</v>
       </c>
-      <c r="M28" s="8">
-        <v>20</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8">
+      <c r="N28" s="8">
+        <v>20</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8">
         <v>3500</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="R28" s="8">
         <v>500</v>
       </c>
-      <c r="R28" s="8">
+      <c r="S28" s="8">
         <v>50</v>
       </c>
-      <c r="S28" s="8">
+      <c r="T28" s="8">
         <v>180</v>
       </c>
-      <c r="T28" s="8">
+      <c r="U28" s="8">
         <v>30</v>
       </c>
-      <c r="U28" s="8">
-        <v>20</v>
-      </c>
       <c r="V28" s="8">
+        <v>20</v>
+      </c>
+      <c r="W28" s="8">
         <v>10</v>
       </c>
-      <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
@@ -4220,64 +4316,67 @@
       <c r="AD28" s="8"/>
       <c r="AE28" s="8"/>
       <c r="AF28" s="8"/>
-    </row>
-    <row r="29" spans="2:32">
+      <c r="AG28" s="8"/>
+    </row>
+    <row r="29" spans="2:33">
       <c r="B29" s="7"/>
       <c r="C29" s="8">
         <v>1119</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E29" s="8">
         <v>18</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8">
+        <v>85</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8">
         <v>8</v>
       </c>
-      <c r="L29" s="8">
-        <v>20</v>
-      </c>
       <c r="M29" s="8">
         <v>20</v>
       </c>
-      <c r="N29" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8">
+      <c r="N29" s="8">
+        <v>20</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8">
         <v>8000</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="R29" s="8">
         <v>500</v>
       </c>
-      <c r="R29" s="8">
+      <c r="S29" s="8">
         <v>50</v>
       </c>
-      <c r="S29" s="8">
+      <c r="T29" s="8">
         <v>250</v>
       </c>
-      <c r="T29" s="8">
+      <c r="U29" s="8">
         <v>48</v>
       </c>
-      <c r="U29" s="8">
+      <c r="V29" s="8">
         <v>5</v>
       </c>
-      <c r="V29" s="8">
+      <c r="W29" s="8">
         <v>0</v>
       </c>
-      <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
@@ -4287,64 +4386,67 @@
       <c r="AD29" s="8"/>
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
-    </row>
-    <row r="30" spans="2:32">
+      <c r="AG29" s="8"/>
+    </row>
+    <row r="30" spans="2:33">
       <c r="B30" s="7"/>
       <c r="C30" s="8">
         <v>11191</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E30" s="8">
         <v>18</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8">
+        <v>85</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8">
         <v>8</v>
       </c>
-      <c r="L30" s="8">
-        <v>20</v>
-      </c>
       <c r="M30" s="8">
         <v>20</v>
       </c>
-      <c r="N30" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8">
+      <c r="N30" s="8">
+        <v>20</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8">
         <v>8000</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="R30" s="8">
         <v>500</v>
       </c>
-      <c r="R30" s="8">
+      <c r="S30" s="8">
         <v>50</v>
       </c>
-      <c r="S30" s="8">
+      <c r="T30" s="8">
         <v>250</v>
       </c>
-      <c r="T30" s="8">
+      <c r="U30" s="8">
         <v>50</v>
       </c>
-      <c r="U30" s="8">
+      <c r="V30" s="8">
         <v>5</v>
       </c>
-      <c r="V30" s="8">
+      <c r="W30" s="8">
         <v>0</v>
       </c>
-      <c r="W30" s="8"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -4354,178 +4456,187 @@
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
       <c r="AF30" s="8"/>
-    </row>
-    <row r="31" customFormat="1" spans="2:22">
+      <c r="AG30" s="8"/>
+    </row>
+    <row r="31" customFormat="1" spans="2:23">
       <c r="B31" s="7"/>
       <c r="C31" s="8">
         <v>1011</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E31" s="8">
         <v>19</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8">
+        <v>85</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8">
         <v>3</v>
       </c>
-      <c r="L31" s="8">
+      <c r="M31" s="8">
         <v>25</v>
       </c>
-      <c r="M31" s="8">
-        <v>20</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8">
+      <c r="N31" s="8">
+        <v>20</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8">
         <v>7200</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="R31" s="8">
         <v>500</v>
       </c>
-      <c r="R31" s="8">
-        <v>20</v>
-      </c>
       <c r="S31" s="8">
+        <v>20</v>
+      </c>
+      <c r="T31" s="8">
         <v>300</v>
       </c>
-      <c r="T31" s="8">
+      <c r="U31" s="8">
         <v>60</v>
       </c>
-      <c r="U31" s="8">
-        <v>20</v>
-      </c>
       <c r="V31" s="8">
+        <v>20</v>
+      </c>
+      <c r="W31" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="2:22">
+    <row r="32" customFormat="1" spans="2:23">
       <c r="B32" s="7"/>
       <c r="C32" s="8">
         <v>1013</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E32" s="8">
         <v>12</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8">
+        <v>85</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8">
         <v>5</v>
       </c>
-      <c r="L32" s="8">
+      <c r="M32" s="8">
         <v>25</v>
       </c>
-      <c r="M32" s="8">
-        <v>20</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8">
+      <c r="N32" s="8">
+        <v>20</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8">
         <v>8800</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="R32" s="8">
         <v>500</v>
       </c>
-      <c r="R32" s="8">
+      <c r="S32" s="8">
         <v>30</v>
       </c>
-      <c r="S32" s="8">
+      <c r="T32" s="8">
         <v>350</v>
       </c>
-      <c r="T32" s="8">
+      <c r="U32" s="8">
         <v>70</v>
       </c>
-      <c r="U32" s="8">
+      <c r="V32" s="8">
         <v>10</v>
       </c>
-      <c r="V32" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="2:32">
+      <c r="W32" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33">
       <c r="B33" s="7"/>
       <c r="C33" s="8">
         <v>5</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E33" s="8">
         <v>107</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8">
+        <v>160</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8">
         <v>6</v>
       </c>
-      <c r="L33" s="8">
+      <c r="M33" s="8">
         <v>10</v>
       </c>
-      <c r="M33" s="8">
-        <v>20</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>159</v>
+      <c r="N33" s="8">
+        <v>20</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="P33" s="8">
-        <v>2000</v>
+        <v>161</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="Q33" s="8">
         <v>2000</v>
       </c>
       <c r="R33" s="8">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="S33" s="8">
+        <v>20</v>
+      </c>
+      <c r="T33" s="8">
         <v>400</v>
       </c>
-      <c r="T33" s="8">
+      <c r="U33" s="8">
         <v>40</v>
       </c>
-      <c r="U33" s="8">
+      <c r="V33" s="8">
         <v>50</v>
       </c>
-      <c r="V33" s="8">
+      <c r="W33" s="8">
         <v>0</v>
       </c>
-      <c r="W33" s="8"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
@@ -4535,64 +4646,67 @@
       <c r="AD33" s="8"/>
       <c r="AE33" s="8"/>
       <c r="AF33" s="8"/>
-    </row>
-    <row r="34" spans="2:34">
+      <c r="AG33" s="8"/>
+    </row>
+    <row r="34" spans="2:35">
       <c r="B34" s="7"/>
       <c r="C34" s="8">
         <v>2113</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E34" s="8">
         <v>108</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8">
+        <v>85</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8">
         <v>12</v>
       </c>
-      <c r="L34" s="8">
+      <c r="M34" s="8">
         <v>25</v>
       </c>
-      <c r="M34" s="8">
-        <v>20</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8">
+      <c r="N34" s="8">
+        <v>20</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8">
         <v>6000</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="R34" s="8">
         <v>2000</v>
       </c>
-      <c r="R34" s="8">
+      <c r="S34" s="8">
         <v>10</v>
       </c>
-      <c r="S34" s="8">
+      <c r="T34" s="8">
         <v>800</v>
       </c>
-      <c r="T34" s="8">
+      <c r="U34" s="8">
         <v>80</v>
       </c>
-      <c r="U34" s="8">
+      <c r="V34" s="8">
         <v>5</v>
       </c>
-      <c r="V34" s="8">
+      <c r="W34" s="8">
         <v>0</v>
       </c>
-      <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
@@ -4602,65 +4716,68 @@
       <c r="AD34" s="8"/>
       <c r="AE34" s="8"/>
       <c r="AF34" s="8"/>
-      <c r="AH34" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="2:34">
+      <c r="AG34" s="8"/>
+      <c r="AI34" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="2:35">
       <c r="B35" s="7"/>
       <c r="C35" s="8">
         <v>2013</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E35" s="8">
         <v>109</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8">
+        <v>85</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8">
         <v>6</v>
       </c>
-      <c r="L35" s="8">
+      <c r="M35" s="8">
         <v>25</v>
       </c>
-      <c r="M35" s="8">
-        <v>20</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8">
+      <c r="N35" s="8">
+        <v>20</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8">
         <v>6000</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="R35" s="8">
         <v>2000</v>
       </c>
-      <c r="R35" s="8">
-        <v>20</v>
-      </c>
       <c r="S35" s="8">
+        <v>20</v>
+      </c>
+      <c r="T35" s="8">
         <v>600</v>
       </c>
-      <c r="T35" s="8">
+      <c r="U35" s="8">
         <v>40</v>
       </c>
-      <c r="U35" s="8">
+      <c r="V35" s="8">
         <v>5</v>
       </c>
-      <c r="V35" s="8">
+      <c r="W35" s="8">
         <v>0</v>
       </c>
-      <c r="W35" s="8"/>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
@@ -4670,65 +4787,68 @@
       <c r="AD35" s="8"/>
       <c r="AE35" s="8"/>
       <c r="AF35" s="8"/>
-      <c r="AH35" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="2:34">
+      <c r="AG35" s="8"/>
+      <c r="AI35" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="2:35">
       <c r="B36" s="7"/>
       <c r="C36" s="8">
         <v>2103</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E36" s="8">
         <v>110</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8">
+        <v>85</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8">
         <v>12</v>
       </c>
-      <c r="L36" s="8">
+      <c r="M36" s="8">
         <v>25</v>
       </c>
-      <c r="M36" s="8">
-        <v>20</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8">
+      <c r="N36" s="8">
+        <v>20</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8">
         <v>6000</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="R36" s="8">
         <v>2000</v>
       </c>
-      <c r="R36" s="8">
+      <c r="S36" s="8">
         <v>30</v>
       </c>
-      <c r="S36" s="8">
+      <c r="T36" s="8">
         <v>800</v>
       </c>
-      <c r="T36" s="8">
+      <c r="U36" s="8">
         <v>80</v>
       </c>
-      <c r="U36" s="8">
+      <c r="V36" s="8">
         <v>5</v>
       </c>
-      <c r="V36" s="8">
+      <c r="W36" s="8">
         <v>10</v>
       </c>
-      <c r="W36" s="8"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
@@ -4738,59 +4858,60 @@
       <c r="AD36" s="8"/>
       <c r="AE36" s="8"/>
       <c r="AF36" s="8"/>
-      <c r="AH36" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="2:32">
+      <c r="AG36" s="8"/>
+      <c r="AI36" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33">
       <c r="B37" s="7"/>
       <c r="C37" s="8">
         <v>3113</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E37" s="8">
         <v>112</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8">
-        <v>30</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="K37" s="8"/>
       <c r="L37" s="8">
         <v>30</v>
       </c>
       <c r="M37" s="8">
+        <v>30</v>
+      </c>
+      <c r="N37" s="8">
         <v>40</v>
       </c>
-      <c r="N37" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8">
+      <c r="O37" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8">
         <v>10000</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="R37" s="8">
         <v>1000</v>
       </c>
-      <c r="R37" s="8">
+      <c r="S37" s="8">
         <v>0</v>
       </c>
-      <c r="S37" s="8">
+      <c r="T37" s="8">
         <v>2000</v>
-      </c>
-      <c r="T37" s="8">
-        <v>0</v>
       </c>
       <c r="U37" s="8">
         <v>0</v>
@@ -4798,7 +4919,9 @@
       <c r="V37" s="8">
         <v>0</v>
       </c>
-      <c r="W37" s="8"/>
+      <c r="W37" s="8">
+        <v>0</v>
+      </c>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
@@ -4808,126 +4931,132 @@
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
       <c r="AF37" s="8"/>
-    </row>
-    <row r="38" customFormat="1" spans="2:36">
+      <c r="AG37" s="8"/>
+    </row>
+    <row r="38" customFormat="1" spans="2:37">
       <c r="B38" s="7"/>
       <c r="C38" s="8">
         <v>2010</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E38" s="8">
         <v>19</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8">
+        <v>85</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8">
         <v>3</v>
       </c>
-      <c r="L38" s="8">
+      <c r="M38" s="8">
         <v>30</v>
       </c>
-      <c r="M38" s="8">
-        <v>20</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8">
+      <c r="N38" s="8">
+        <v>20</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8">
         <v>10000</v>
       </c>
-      <c r="Q38" s="8">
+      <c r="R38" s="8">
         <v>500</v>
       </c>
-      <c r="R38" s="8">
+      <c r="S38" s="8">
         <v>15</v>
       </c>
-      <c r="S38" s="8">
+      <c r="T38" s="8">
         <v>800</v>
       </c>
-      <c r="T38" s="8">
+      <c r="U38" s="8">
         <v>60</v>
       </c>
-      <c r="U38" s="8">
+      <c r="V38" s="8">
         <v>5</v>
       </c>
-      <c r="V38" s="8">
+      <c r="W38" s="8">
         <v>30</v>
       </c>
-      <c r="AH38" t="s">
-        <v>106</v>
-      </c>
       <c r="AI38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="2:32">
+        <v>109</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33">
       <c r="B39" s="7"/>
       <c r="C39" s="8">
         <v>7</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E39" s="8">
         <v>113</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8">
+        <v>85</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8">
         <v>8</v>
       </c>
-      <c r="L39" s="8">
+      <c r="M39" s="8">
         <v>30</v>
       </c>
-      <c r="M39" s="8">
-        <v>20</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8">
+      <c r="N39" s="8">
+        <v>20</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8">
         <v>1000</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="R39" s="8">
         <v>500</v>
       </c>
-      <c r="R39" s="8">
+      <c r="S39" s="8">
         <v>10</v>
       </c>
-      <c r="S39" s="8">
+      <c r="T39" s="8">
         <v>100</v>
       </c>
-      <c r="T39" s="8">
+      <c r="U39" s="8">
         <v>40</v>
       </c>
-      <c r="U39" s="8">
+      <c r="V39" s="8">
         <v>30</v>
       </c>
-      <c r="V39" s="8">
+      <c r="W39" s="8">
         <v>0</v>
       </c>
-      <c r="W39" s="8"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
@@ -4937,64 +5066,67 @@
       <c r="AD39" s="8"/>
       <c r="AE39" s="8"/>
       <c r="AF39" s="8"/>
-    </row>
-    <row r="40" spans="2:32">
+      <c r="AG39" s="8"/>
+    </row>
+    <row r="40" spans="2:33">
       <c r="B40" s="7"/>
       <c r="C40" s="8">
         <v>2009</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E40" s="8">
         <v>115</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8">
+        <v>160</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8">
         <v>10</v>
       </c>
-      <c r="L40" s="8">
+      <c r="M40" s="8">
         <v>30</v>
       </c>
-      <c r="M40" s="8">
-        <v>20</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>178</v>
+      <c r="N40" s="8">
+        <v>20</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="P40" s="8">
+        <v>180</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q40" s="8">
         <v>10000</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="R40" s="8">
         <v>1000</v>
       </c>
-      <c r="R40" s="8">
+      <c r="S40" s="8">
         <v>40</v>
       </c>
-      <c r="S40" s="8">
+      <c r="T40" s="8">
         <v>3000</v>
       </c>
-      <c r="T40" s="8">
+      <c r="U40" s="8">
         <v>80</v>
       </c>
-      <c r="U40" s="8">
+      <c r="V40" s="8">
         <v>50</v>
       </c>
-      <c r="V40" s="8">
+      <c r="W40" s="8">
         <v>0</v>
       </c>
-      <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
@@ -5004,64 +5136,67 @@
       <c r="AD40" s="8"/>
       <c r="AE40" s="8"/>
       <c r="AF40" s="8"/>
-    </row>
-    <row r="41" spans="2:36">
+      <c r="AG40" s="8"/>
+    </row>
+    <row r="41" spans="2:37">
       <c r="B41" s="7"/>
       <c r="C41" s="8">
         <v>20</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E41" s="8">
         <v>19</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8">
+        <v>184</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8">
         <v>3</v>
       </c>
-      <c r="L41" s="8">
+      <c r="M41" s="8">
         <v>35</v>
       </c>
-      <c r="M41" s="8">
+      <c r="N41" s="8">
         <v>40</v>
       </c>
-      <c r="N41" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="O41" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="P41" s="8">
+        <v>185</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q41" s="8">
         <v>5000</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="R41" s="8">
         <v>500</v>
       </c>
-      <c r="R41" s="8">
+      <c r="S41" s="8">
         <v>30</v>
       </c>
-      <c r="S41" s="8">
+      <c r="T41" s="8">
         <v>400</v>
       </c>
-      <c r="T41" s="8">
+      <c r="U41" s="8">
         <v>70</v>
       </c>
-      <c r="U41" s="8">
+      <c r="V41" s="8">
         <v>30</v>
       </c>
-      <c r="V41" s="8">
+      <c r="W41" s="8">
         <v>0</v>
       </c>
-      <c r="W41" s="8"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
@@ -5071,70 +5206,73 @@
       <c r="AD41" s="8"/>
       <c r="AE41" s="8"/>
       <c r="AF41" s="8"/>
-      <c r="AI41" s="1">
+      <c r="AG41" s="8"/>
+      <c r="AJ41" s="1">
         <v>13</v>
       </c>
-      <c r="AJ41" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="2:36">
+      <c r="AK41" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="2:37">
       <c r="B42" s="7"/>
       <c r="C42" s="8">
         <v>21</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E42" s="8">
         <v>19</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8">
+        <v>85</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8">
         <v>3</v>
       </c>
-      <c r="L42" s="8">
+      <c r="M42" s="8">
         <v>35</v>
       </c>
-      <c r="M42" s="8">
-        <v>20</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>183</v>
+      <c r="N42" s="8">
+        <v>20</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="P42" s="8">
+        <v>185</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q42" s="8">
         <v>5000</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="R42" s="8">
         <v>500</v>
       </c>
-      <c r="R42" s="8">
-        <v>20</v>
-      </c>
       <c r="S42" s="8">
+        <v>20</v>
+      </c>
+      <c r="T42" s="8">
         <v>400</v>
       </c>
-      <c r="T42" s="8">
+      <c r="U42" s="8">
         <v>70</v>
       </c>
-      <c r="U42" s="8">
+      <c r="V42" s="8">
         <v>30</v>
       </c>
-      <c r="V42" s="8">
+      <c r="W42" s="8">
         <v>0</v>
       </c>
-      <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
@@ -5144,70 +5282,73 @@
       <c r="AD42" s="8"/>
       <c r="AE42" s="8"/>
       <c r="AF42" s="8"/>
-      <c r="AI42" s="1">
+      <c r="AG42" s="8"/>
+      <c r="AJ42" s="1">
         <v>13</v>
       </c>
-      <c r="AJ42" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="2:36">
+      <c r="AK42" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="2:37">
       <c r="B43" s="7"/>
       <c r="C43" s="8">
         <v>1022</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E43" s="8">
         <v>119</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8">
+        <v>85</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8">
         <v>5</v>
       </c>
-      <c r="L43" s="8">
+      <c r="M43" s="8">
         <v>35</v>
       </c>
-      <c r="M43" s="8">
-        <v>20</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>190</v>
+      <c r="N43" s="8">
+        <v>20</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="P43" s="8">
+        <v>192</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q43" s="8">
         <v>10000</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="R43" s="8">
         <v>1000</v>
       </c>
-      <c r="R43" s="8">
-        <v>20</v>
-      </c>
       <c r="S43" s="8">
+        <v>20</v>
+      </c>
+      <c r="T43" s="8">
         <v>3000</v>
       </c>
-      <c r="T43" s="8">
+      <c r="U43" s="8">
         <v>90</v>
       </c>
-      <c r="U43" s="8">
+      <c r="V43" s="8">
         <v>30</v>
       </c>
-      <c r="V43" s="8">
+      <c r="W43" s="8">
         <v>0</v>
       </c>
-      <c r="W43" s="8"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
@@ -5217,70 +5358,73 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="8"/>
       <c r="AF43" s="8"/>
-      <c r="AI43" s="1">
+      <c r="AG43" s="8"/>
+      <c r="AJ43" s="1">
         <v>13</v>
       </c>
-      <c r="AJ43" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="2:36">
+      <c r="AK43" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="2:37">
       <c r="B44" s="7"/>
       <c r="C44" s="8">
         <v>23</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E44" s="8">
         <v>19</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8">
+        <v>184</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8">
         <v>3</v>
       </c>
-      <c r="L44" s="8">
+      <c r="M44" s="8">
         <v>40</v>
       </c>
-      <c r="M44" s="8">
-        <v>20</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>193</v>
+      <c r="N44" s="8">
+        <v>20</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="P44" s="8">
+        <v>195</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q44" s="8">
         <v>6000</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="R44" s="8">
         <v>500</v>
       </c>
-      <c r="R44" s="8">
+      <c r="S44" s="8">
         <v>30</v>
       </c>
-      <c r="S44" s="8">
+      <c r="T44" s="8">
         <v>400</v>
       </c>
-      <c r="T44" s="8">
+      <c r="U44" s="8">
         <v>70</v>
       </c>
-      <c r="U44" s="8">
+      <c r="V44" s="8">
         <v>30</v>
       </c>
-      <c r="V44" s="8">
+      <c r="W44" s="8">
         <v>0</v>
       </c>
-      <c r="W44" s="8"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
@@ -5290,68 +5434,71 @@
       <c r="AD44" s="8"/>
       <c r="AE44" s="8"/>
       <c r="AF44" s="8"/>
-      <c r="AI44" s="1">
+      <c r="AG44" s="8"/>
+      <c r="AJ44" s="1">
         <v>13</v>
       </c>
-      <c r="AJ44" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="2:36">
+      <c r="AK44" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="2:37">
       <c r="B45" s="7"/>
       <c r="C45" s="8">
         <v>24</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E45" s="8">
         <v>121</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8">
+        <v>85</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8">
         <v>7</v>
       </c>
-      <c r="L45" s="8">
+      <c r="M45" s="8">
         <v>40</v>
       </c>
-      <c r="M45" s="8">
-        <v>20</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8">
+      <c r="N45" s="8">
+        <v>20</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8">
         <v>6000</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="R45" s="8">
         <v>500</v>
       </c>
-      <c r="R45" s="8">
-        <v>20</v>
-      </c>
       <c r="S45" s="8">
+        <v>20</v>
+      </c>
+      <c r="T45" s="8">
         <v>600</v>
       </c>
-      <c r="T45" s="8">
+      <c r="U45" s="8">
         <v>70</v>
       </c>
-      <c r="U45" s="8">
+      <c r="V45" s="8">
         <v>30</v>
       </c>
-      <c r="V45" s="8">
+      <c r="W45" s="8">
         <v>0</v>
       </c>
-      <c r="W45" s="8"/>
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
@@ -5361,70 +5508,73 @@
       <c r="AD45" s="8"/>
       <c r="AE45" s="8"/>
       <c r="AF45" s="8"/>
-      <c r="AI45" s="1">
+      <c r="AG45" s="8"/>
+      <c r="AJ45" s="1">
         <v>13</v>
       </c>
-      <c r="AJ45" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="2:36">
+      <c r="AK45" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:37">
       <c r="B46" s="7"/>
       <c r="C46" s="8">
         <v>1025</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E46" s="8">
         <v>122</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8">
+        <v>184</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8">
         <v>10</v>
       </c>
-      <c r="L46" s="8">
+      <c r="M46" s="8">
         <v>40</v>
       </c>
-      <c r="M46" s="8">
-        <v>20</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>199</v>
+      <c r="N46" s="8">
+        <v>20</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="P46" s="8">
+        <v>201</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q46" s="8">
         <v>12000</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="R46" s="8">
         <v>1500</v>
       </c>
-      <c r="R46" s="8">
-        <v>20</v>
-      </c>
       <c r="S46" s="8">
+        <v>20</v>
+      </c>
+      <c r="T46" s="8">
         <v>4000</v>
       </c>
-      <c r="T46" s="8">
+      <c r="U46" s="8">
         <v>100</v>
       </c>
-      <c r="U46" s="8">
+      <c r="V46" s="8">
         <v>60</v>
       </c>
-      <c r="V46" s="8">
+      <c r="W46" s="8">
         <v>0</v>
       </c>
-      <c r="W46" s="8"/>
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
@@ -5434,68 +5584,71 @@
       <c r="AD46" s="8"/>
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
-      <c r="AI46" s="1">
+      <c r="AG46" s="8"/>
+      <c r="AJ46" s="1">
         <v>13</v>
       </c>
-      <c r="AJ46" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="2:36">
+      <c r="AK46" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="2:37">
       <c r="B47" s="7"/>
       <c r="C47" s="8">
         <v>26</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E47" s="8">
         <v>124</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8">
+        <v>85</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8">
         <v>8</v>
       </c>
-      <c r="L47" s="8">
+      <c r="M47" s="8">
         <v>45</v>
       </c>
-      <c r="M47" s="8">
-        <v>20</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8">
+      <c r="N47" s="8">
+        <v>20</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8">
         <v>7000</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="R47" s="8">
         <v>1000</v>
       </c>
-      <c r="R47" s="8">
-        <v>20</v>
-      </c>
       <c r="S47" s="8">
+        <v>20</v>
+      </c>
+      <c r="T47" s="8">
         <v>500</v>
       </c>
-      <c r="T47" s="8">
+      <c r="U47" s="8">
         <v>150</v>
       </c>
-      <c r="U47" s="8">
+      <c r="V47" s="8">
         <v>30</v>
       </c>
-      <c r="V47" s="8">
+      <c r="W47" s="8">
         <v>0</v>
       </c>
-      <c r="W47" s="8"/>
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
@@ -5505,70 +5658,73 @@
       <c r="AD47" s="8"/>
       <c r="AE47" s="8"/>
       <c r="AF47" s="8"/>
-      <c r="AI47" s="1">
+      <c r="AG47" s="8"/>
+      <c r="AJ47" s="1">
         <v>13</v>
       </c>
-      <c r="AJ47" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="2:36">
+      <c r="AK47" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:37">
       <c r="B48" s="7"/>
       <c r="C48" s="8">
         <v>27</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E48" s="8">
         <v>19</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8">
+        <v>208</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8">
         <v>3</v>
       </c>
-      <c r="L48" s="8">
+      <c r="M48" s="8">
         <v>45</v>
       </c>
-      <c r="M48" s="8">
-        <v>20</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>203</v>
+      <c r="N48" s="8">
+        <v>20</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="P48" s="8">
+        <v>205</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q48" s="8">
         <v>7000</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="R48" s="8">
         <v>1000</v>
       </c>
-      <c r="R48" s="8">
-        <v>20</v>
-      </c>
       <c r="S48" s="8">
+        <v>20</v>
+      </c>
+      <c r="T48" s="8">
         <v>700</v>
       </c>
-      <c r="T48" s="8">
+      <c r="U48" s="8">
         <v>120</v>
       </c>
-      <c r="U48" s="8">
+      <c r="V48" s="8">
         <v>30</v>
       </c>
-      <c r="V48" s="8">
+      <c r="W48" s="8">
         <v>0</v>
       </c>
-      <c r="W48" s="8"/>
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
@@ -5578,70 +5734,73 @@
       <c r="AD48" s="8"/>
       <c r="AE48" s="8"/>
       <c r="AF48" s="8"/>
-      <c r="AI48" s="1">
+      <c r="AG48" s="8"/>
+      <c r="AJ48" s="1">
         <v>13</v>
       </c>
-      <c r="AJ48" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="2:36">
+      <c r="AK48" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:37">
       <c r="B49" s="7"/>
       <c r="C49" s="8">
         <v>1028</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E49" s="8">
         <v>127</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8">
+        <v>184</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8">
         <v>6</v>
       </c>
-      <c r="L49" s="8">
+      <c r="M49" s="8">
         <v>45</v>
       </c>
-      <c r="M49" s="8">
-        <v>20</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>199</v>
+      <c r="N49" s="8">
+        <v>20</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="P49" s="8">
+        <v>201</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q49" s="8">
         <v>15000</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="R49" s="8">
         <v>1500</v>
       </c>
-      <c r="R49" s="8">
+      <c r="S49" s="8">
         <v>40</v>
       </c>
-      <c r="S49" s="8">
+      <c r="T49" s="8">
         <v>4000</v>
       </c>
-      <c r="T49" s="8">
+      <c r="U49" s="8">
         <v>200</v>
       </c>
-      <c r="U49" s="8">
+      <c r="V49" s="8">
         <v>40</v>
       </c>
-      <c r="V49" s="8">
+      <c r="W49" s="8">
         <v>0</v>
       </c>
-      <c r="W49" s="8"/>
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
@@ -5651,70 +5810,73 @@
       <c r="AD49" s="8"/>
       <c r="AE49" s="8"/>
       <c r="AF49" s="8"/>
-      <c r="AI49" s="1">
+      <c r="AG49" s="8"/>
+      <c r="AJ49" s="1">
         <v>13</v>
       </c>
-      <c r="AJ49" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="2:36">
+      <c r="AK49" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="2:37">
       <c r="B50" s="7"/>
       <c r="C50" s="8">
         <v>29</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E50" s="8">
         <v>0</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8">
+        <v>214</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8">
         <v>6</v>
       </c>
-      <c r="L50" s="8">
+      <c r="M50" s="8">
         <v>50</v>
       </c>
-      <c r="M50" s="8">
-        <v>20</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>213</v>
+      <c r="N50" s="8">
+        <v>20</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="P50" s="8">
+        <v>215</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q50" s="8">
         <v>8000</v>
       </c>
-      <c r="Q50" s="8">
+      <c r="R50" s="8">
         <v>1000</v>
       </c>
-      <c r="R50" s="8">
-        <v>20</v>
-      </c>
       <c r="S50" s="8">
+        <v>20</v>
+      </c>
+      <c r="T50" s="8">
         <v>800</v>
       </c>
-      <c r="T50" s="8">
+      <c r="U50" s="8">
         <v>150</v>
       </c>
-      <c r="U50" s="8">
-        <v>20</v>
-      </c>
       <c r="V50" s="8">
+        <v>20</v>
+      </c>
+      <c r="W50" s="8">
         <v>0</v>
       </c>
-      <c r="W50" s="8"/>
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
@@ -5724,70 +5886,73 @@
       <c r="AD50" s="8"/>
       <c r="AE50" s="8"/>
       <c r="AF50" s="8"/>
-      <c r="AI50" s="1">
+      <c r="AG50" s="8"/>
+      <c r="AJ50" s="1">
         <v>13</v>
       </c>
-      <c r="AJ50" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="2:36">
+      <c r="AK50" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="2:37">
       <c r="B51" s="7"/>
       <c r="C51" s="8">
         <v>30</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E51" s="8">
         <v>19</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8">
+        <v>219</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8">
         <v>3</v>
       </c>
-      <c r="L51" s="8">
+      <c r="M51" s="8">
         <v>50</v>
       </c>
-      <c r="M51" s="8">
-        <v>20</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>213</v>
+      <c r="N51" s="8">
+        <v>20</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="P51" s="8">
+        <v>215</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q51" s="8">
         <v>8000</v>
       </c>
-      <c r="Q51" s="8">
+      <c r="R51" s="8">
         <v>500</v>
       </c>
-      <c r="R51" s="8">
+      <c r="S51" s="8">
         <v>30</v>
       </c>
-      <c r="S51" s="8">
+      <c r="T51" s="8">
         <v>400</v>
       </c>
-      <c r="T51" s="8">
+      <c r="U51" s="8">
         <v>120</v>
       </c>
-      <c r="U51" s="8">
-        <v>20</v>
-      </c>
       <c r="V51" s="8">
+        <v>20</v>
+      </c>
+      <c r="W51" s="8">
         <v>0</v>
       </c>
-      <c r="W51" s="8"/>
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
@@ -5797,68 +5962,71 @@
       <c r="AD51" s="8"/>
       <c r="AE51" s="8"/>
       <c r="AF51" s="8"/>
-      <c r="AI51" s="1">
+      <c r="AG51" s="8"/>
+      <c r="AJ51" s="1">
         <v>13</v>
       </c>
-      <c r="AJ51" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="2:36">
+      <c r="AK51" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="2:37">
       <c r="B52" s="7"/>
       <c r="C52" s="8">
         <v>1031</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E52" s="8">
         <v>127</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8">
+        <v>222</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8">
         <v>6</v>
       </c>
-      <c r="L52" s="8">
+      <c r="M52" s="8">
         <v>50</v>
       </c>
-      <c r="M52" s="8">
-        <v>20</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8">
+      <c r="N52" s="8">
+        <v>20</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8">
         <v>12000</v>
       </c>
-      <c r="Q52" s="8">
+      <c r="R52" s="8">
         <v>1000</v>
       </c>
-      <c r="R52" s="8">
+      <c r="S52" s="8">
         <v>30</v>
       </c>
-      <c r="S52" s="8">
+      <c r="T52" s="8">
         <v>1300</v>
       </c>
-      <c r="T52" s="8">
+      <c r="U52" s="8">
         <v>150</v>
       </c>
-      <c r="U52" s="8">
-        <v>20</v>
-      </c>
       <c r="V52" s="8">
+        <v>20</v>
+      </c>
+      <c r="W52" s="8">
         <v>0</v>
       </c>
-      <c r="W52" s="8"/>
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
@@ -5868,68 +6036,71 @@
       <c r="AD52" s="8"/>
       <c r="AE52" s="8"/>
       <c r="AF52" s="8"/>
-      <c r="AI52" s="1">
+      <c r="AG52" s="8"/>
+      <c r="AJ52" s="1">
         <v>13</v>
       </c>
-      <c r="AJ52" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="2:36">
+      <c r="AK52" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="2:37">
       <c r="B53" s="7"/>
       <c r="C53" s="8">
         <v>32</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E53" s="8">
         <v>131</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8">
+        <v>85</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8">
         <v>3</v>
       </c>
-      <c r="L53" s="8">
+      <c r="M53" s="8">
         <v>50</v>
       </c>
-      <c r="M53" s="8">
-        <v>20</v>
-      </c>
-      <c r="N53" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8">
+      <c r="N53" s="8">
+        <v>20</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8">
         <v>10000</v>
       </c>
-      <c r="Q53" s="8">
+      <c r="R53" s="8">
         <v>500</v>
       </c>
-      <c r="R53" s="8">
+      <c r="S53" s="8">
         <v>30</v>
       </c>
-      <c r="S53" s="8">
+      <c r="T53" s="8">
         <v>600</v>
       </c>
-      <c r="T53" s="8">
+      <c r="U53" s="8">
         <v>120</v>
       </c>
-      <c r="U53" s="8">
-        <v>20</v>
-      </c>
       <c r="V53" s="8">
+        <v>20</v>
+      </c>
+      <c r="W53" s="8">
         <v>30</v>
       </c>
-      <c r="W53" s="8"/>
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
@@ -5939,68 +6110,71 @@
       <c r="AD53" s="8"/>
       <c r="AE53" s="8"/>
       <c r="AF53" s="8"/>
-      <c r="AI53" s="1">
+      <c r="AG53" s="8"/>
+      <c r="AJ53" s="1">
         <v>13</v>
       </c>
-      <c r="AJ53" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="2:36">
+      <c r="AK53" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="2:37">
       <c r="B54" s="7"/>
       <c r="C54" s="8">
         <v>33</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E54" s="8">
         <v>132</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8">
+        <v>85</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8">
         <v>6</v>
       </c>
-      <c r="L54" s="8">
+      <c r="M54" s="8">
         <v>55</v>
       </c>
-      <c r="M54" s="8">
-        <v>20</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8">
+      <c r="N54" s="8">
+        <v>20</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8">
         <v>10000</v>
       </c>
-      <c r="Q54" s="8">
+      <c r="R54" s="8">
         <v>1000</v>
       </c>
-      <c r="R54" s="8">
-        <v>20</v>
-      </c>
       <c r="S54" s="8">
+        <v>20</v>
+      </c>
+      <c r="T54" s="8">
         <v>700</v>
       </c>
-      <c r="T54" s="8">
+      <c r="U54" s="8">
         <v>140</v>
       </c>
-      <c r="U54" s="8">
-        <v>20</v>
-      </c>
       <c r="V54" s="8">
+        <v>20</v>
+      </c>
+      <c r="W54" s="8">
         <v>0</v>
       </c>
-      <c r="W54" s="8"/>
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
@@ -6010,70 +6184,73 @@
       <c r="AD54" s="8"/>
       <c r="AE54" s="8"/>
       <c r="AF54" s="8"/>
-      <c r="AI54" s="1">
+      <c r="AG54" s="8"/>
+      <c r="AJ54" s="1">
         <v>13</v>
       </c>
-      <c r="AJ54" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="2:36">
+      <c r="AK54" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="2:37">
       <c r="B55" s="7"/>
       <c r="C55" s="8">
         <v>34</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E55" s="8">
         <v>19</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8">
+        <v>3</v>
+      </c>
+      <c r="M55" s="8">
+        <v>55</v>
+      </c>
+      <c r="N55" s="8">
+        <v>20</v>
+      </c>
+      <c r="O55" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8">
-        <v>3</v>
-      </c>
-      <c r="L55" s="8">
-        <v>55</v>
-      </c>
-      <c r="M55" s="8">
-        <v>20</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="O55" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="P55" s="8">
+      <c r="P55" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q55" s="8">
         <v>10000</v>
       </c>
-      <c r="Q55" s="8">
+      <c r="R55" s="8">
         <v>1000</v>
       </c>
-      <c r="R55" s="8">
-        <v>20</v>
-      </c>
       <c r="S55" s="8">
+        <v>20</v>
+      </c>
+      <c r="T55" s="8">
         <v>700</v>
       </c>
-      <c r="T55" s="8">
+      <c r="U55" s="8">
         <v>120</v>
-      </c>
-      <c r="U55" s="8">
-        <v>0</v>
       </c>
       <c r="V55" s="8">
         <v>0</v>
       </c>
-      <c r="W55" s="8"/>
+      <c r="W55" s="8">
+        <v>0</v>
+      </c>
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
@@ -6083,68 +6260,71 @@
       <c r="AD55" s="8"/>
       <c r="AE55" s="8"/>
       <c r="AF55" s="8"/>
-      <c r="AI55" s="1">
+      <c r="AG55" s="8"/>
+      <c r="AJ55" s="1">
         <v>13</v>
       </c>
-      <c r="AJ55" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="2:36">
+      <c r="AK55" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="2:37">
       <c r="B56" s="7"/>
       <c r="C56" s="8">
         <v>35</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E56" s="8">
         <v>134</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8">
+        <v>85</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8">
         <v>8</v>
       </c>
-      <c r="L56" s="8">
+      <c r="M56" s="8">
         <v>55</v>
       </c>
-      <c r="M56" s="8">
-        <v>20</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8">
+      <c r="N56" s="8">
+        <v>20</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8">
         <v>10000</v>
       </c>
-      <c r="Q56" s="8">
+      <c r="R56" s="8">
         <v>1500</v>
       </c>
-      <c r="R56" s="8">
-        <v>20</v>
-      </c>
       <c r="S56" s="8">
+        <v>20</v>
+      </c>
+      <c r="T56" s="8">
         <v>700</v>
       </c>
-      <c r="T56" s="8">
+      <c r="U56" s="8">
         <v>250</v>
-      </c>
-      <c r="U56" s="8">
-        <v>0</v>
       </c>
       <c r="V56" s="8">
         <v>0</v>
       </c>
-      <c r="W56" s="8"/>
+      <c r="W56" s="8">
+        <v>0</v>
+      </c>
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
@@ -6154,60 +6334,61 @@
       <c r="AD56" s="8"/>
       <c r="AE56" s="8"/>
       <c r="AF56" s="8"/>
-      <c r="AI56" s="1">
+      <c r="AG56" s="8"/>
+      <c r="AJ56" s="1">
         <v>13</v>
       </c>
-      <c r="AJ56" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="2:36">
+      <c r="AK56" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="2:37">
       <c r="B57" s="7"/>
       <c r="C57" s="8">
         <v>36</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E57" s="8">
         <v>19</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8">
+        <v>234</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8">
         <v>8</v>
       </c>
-      <c r="L57" s="8">
+      <c r="M57" s="8">
         <v>55</v>
       </c>
-      <c r="M57" s="8">
-        <v>20</v>
-      </c>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="P57" s="8">
+      <c r="N57" s="8">
+        <v>20</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q57" s="8">
         <v>10000</v>
       </c>
-      <c r="Q57" s="8">
+      <c r="R57" s="8">
         <v>1500</v>
       </c>
-      <c r="R57" s="8">
-        <v>20</v>
-      </c>
       <c r="S57" s="8">
+        <v>20</v>
+      </c>
+      <c r="T57" s="8">
         <v>50</v>
-      </c>
-      <c r="T57" s="8">
-        <v>0</v>
       </c>
       <c r="U57" s="8">
         <v>0</v>
@@ -6215,7 +6396,9 @@
       <c r="V57" s="8">
         <v>0</v>
       </c>
-      <c r="W57" s="8"/>
+      <c r="W57" s="8">
+        <v>0</v>
+      </c>
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
@@ -6225,70 +6408,73 @@
       <c r="AD57" s="8"/>
       <c r="AE57" s="8"/>
       <c r="AF57" s="8"/>
-      <c r="AI57" s="1">
+      <c r="AG57" s="8"/>
+      <c r="AJ57" s="1">
         <v>13</v>
       </c>
-      <c r="AJ57" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="2:32">
+      <c r="AK57" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="2:33">
       <c r="B58" s="7"/>
       <c r="C58" s="8">
         <v>2011</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E58" s="8">
         <v>115</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8">
+        <v>160</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8">
         <v>10</v>
       </c>
-      <c r="L58" s="8">
+      <c r="M58" s="8">
         <v>55</v>
       </c>
-      <c r="M58" s="8">
-        <v>20</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>235</v>
+      <c r="N58" s="8">
+        <v>20</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="P58" s="8">
+        <v>237</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q58" s="8">
         <v>20000</v>
       </c>
-      <c r="Q58" s="8">
+      <c r="R58" s="8">
         <v>2000</v>
       </c>
-      <c r="R58" s="8">
+      <c r="S58" s="8">
         <v>30</v>
       </c>
-      <c r="S58" s="8">
+      <c r="T58" s="8">
         <v>10000</v>
       </c>
-      <c r="T58" s="8">
+      <c r="U58" s="8">
         <v>250</v>
       </c>
-      <c r="U58" s="8">
+      <c r="V58" s="8">
         <v>50</v>
       </c>
-      <c r="V58" s="8">
+      <c r="W58" s="8">
         <v>0</v>
       </c>
-      <c r="W58" s="8"/>
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
@@ -6298,62 +6484,65 @@
       <c r="AD58" s="8"/>
       <c r="AE58" s="8"/>
       <c r="AF58" s="8"/>
-    </row>
-    <row r="59" spans="2:36">
+      <c r="AG58" s="8"/>
+    </row>
+    <row r="59" spans="2:37">
       <c r="B59" s="7"/>
       <c r="C59" s="8">
         <v>1035</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E59" s="8">
         <v>134</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8">
+        <v>85</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8">
         <v>8</v>
       </c>
-      <c r="L59" s="8">
+      <c r="M59" s="8">
         <v>55</v>
       </c>
-      <c r="M59" s="8">
-        <v>20</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8">
+      <c r="N59" s="8">
+        <v>20</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8">
         <v>10000</v>
       </c>
-      <c r="Q59" s="8">
+      <c r="R59" s="8">
         <v>1500</v>
       </c>
-      <c r="R59" s="8">
-        <v>20</v>
-      </c>
       <c r="S59" s="8">
+        <v>20</v>
+      </c>
+      <c r="T59" s="8">
         <v>3000</v>
       </c>
-      <c r="T59" s="8">
+      <c r="U59" s="8">
         <v>250</v>
-      </c>
-      <c r="U59" s="8">
-        <v>0</v>
       </c>
       <c r="V59" s="8">
         <v>0</v>
       </c>
-      <c r="W59" s="8"/>
+      <c r="W59" s="8">
+        <v>0</v>
+      </c>
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
@@ -6363,70 +6552,73 @@
       <c r="AD59" s="8"/>
       <c r="AE59" s="8"/>
       <c r="AF59" s="8"/>
-      <c r="AI59" s="1">
+      <c r="AG59" s="8"/>
+      <c r="AJ59" s="1">
         <v>13</v>
       </c>
-      <c r="AJ59" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="2:36">
+      <c r="AK59" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="2:37">
       <c r="B60" s="7"/>
       <c r="C60" s="8">
         <v>1034</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E60" s="8">
         <v>19</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8">
+        <v>229</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8">
         <v>3</v>
       </c>
-      <c r="L60" s="8">
+      <c r="M60" s="8">
         <v>55</v>
       </c>
-      <c r="M60" s="8">
-        <v>20</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>239</v>
+      <c r="N60" s="8">
+        <v>20</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="P60" s="8">
+        <v>241</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q60" s="8">
         <v>10000</v>
       </c>
-      <c r="Q60" s="8">
+      <c r="R60" s="8">
         <v>1000</v>
       </c>
-      <c r="R60" s="8">
-        <v>20</v>
-      </c>
       <c r="S60" s="8">
+        <v>20</v>
+      </c>
+      <c r="T60" s="8">
         <v>2800</v>
       </c>
-      <c r="T60" s="8">
+      <c r="U60" s="8">
         <v>120</v>
-      </c>
-      <c r="U60" s="8">
-        <v>0</v>
       </c>
       <c r="V60" s="8">
         <v>0</v>
       </c>
-      <c r="W60" s="8"/>
+      <c r="W60" s="8">
+        <v>0</v>
+      </c>
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
       <c r="Z60" s="8"/>
@@ -6436,68 +6628,71 @@
       <c r="AD60" s="8"/>
       <c r="AE60" s="8"/>
       <c r="AF60" s="8"/>
-      <c r="AI60" s="1">
+      <c r="AG60" s="8"/>
+      <c r="AJ60" s="1">
         <v>13</v>
       </c>
-      <c r="AJ60" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="2:36">
+      <c r="AK60" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="2:37">
       <c r="B61" s="7"/>
       <c r="C61" s="8">
         <v>1033</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E61" s="8">
         <v>132</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8">
+        <v>85</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8">
         <v>6</v>
       </c>
-      <c r="L61" s="8">
+      <c r="M61" s="8">
         <v>55</v>
       </c>
-      <c r="M61" s="8">
-        <v>20</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8">
+      <c r="N61" s="8">
+        <v>20</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8">
         <v>10000</v>
       </c>
-      <c r="Q61" s="8">
+      <c r="R61" s="8">
         <v>1000</v>
       </c>
-      <c r="R61" s="8">
-        <v>20</v>
-      </c>
       <c r="S61" s="8">
+        <v>20</v>
+      </c>
+      <c r="T61" s="8">
         <v>2800</v>
       </c>
-      <c r="T61" s="8">
+      <c r="U61" s="8">
         <v>140</v>
       </c>
-      <c r="U61" s="8">
-        <v>20</v>
-      </c>
       <c r="V61" s="8">
+        <v>20</v>
+      </c>
+      <c r="W61" s="8">
         <v>0</v>
       </c>
-      <c r="W61" s="8"/>
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
@@ -6507,70 +6702,73 @@
       <c r="AD61" s="8"/>
       <c r="AE61" s="8"/>
       <c r="AF61" s="8"/>
-      <c r="AI61" s="1">
+      <c r="AG61" s="8"/>
+      <c r="AJ61" s="1">
         <v>13</v>
       </c>
-      <c r="AJ61" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="2:36">
+      <c r="AK61" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="2:37">
       <c r="B62" s="7"/>
       <c r="C62" s="8">
         <v>37</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E62" s="8">
         <v>136</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8">
+        <v>85</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8">
         <v>7</v>
       </c>
-      <c r="L62" s="8">
+      <c r="M62" s="8">
         <v>60</v>
       </c>
-      <c r="M62" s="8">
-        <v>20</v>
-      </c>
-      <c r="N62" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8">
+      <c r="N62" s="8">
+        <v>20</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8">
         <v>10000</v>
       </c>
-      <c r="Q62" s="8">
+      <c r="R62" s="8">
         <v>500</v>
       </c>
-      <c r="R62" s="8">
-        <v>20</v>
-      </c>
       <c r="S62" s="8">
+        <v>20</v>
+      </c>
+      <c r="T62" s="8">
         <v>600</v>
       </c>
-      <c r="T62" s="8">
+      <c r="U62" s="8">
         <v>120</v>
       </c>
-      <c r="U62" s="8">
+      <c r="V62" s="8">
         <v>5</v>
       </c>
-      <c r="V62" s="8">
+      <c r="W62" s="8">
         <v>0</v>
       </c>
-      <c r="W62" s="8"/>
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
@@ -6580,68 +6778,71 @@
       <c r="AD62" s="8"/>
       <c r="AE62" s="8"/>
       <c r="AF62" s="8"/>
-      <c r="AI62" s="1">
+      <c r="AG62" s="8"/>
+      <c r="AJ62" s="1">
         <v>13</v>
       </c>
-      <c r="AJ62" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="2:36">
+      <c r="AK62" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="2:37">
       <c r="B63" s="7"/>
       <c r="C63" s="8">
         <v>38</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E63" s="8">
         <v>19</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8">
+        <v>249</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8">
         <v>4</v>
       </c>
-      <c r="L63" s="8">
+      <c r="M63" s="8">
         <v>60</v>
       </c>
-      <c r="M63" s="8">
-        <v>20</v>
-      </c>
-      <c r="N63" s="8"/>
+      <c r="N63" s="8">
+        <v>20</v>
+      </c>
       <c r="O63" s="8"/>
-      <c r="P63" s="8">
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8">
         <v>0</v>
       </c>
-      <c r="Q63" s="8">
+      <c r="R63" s="8">
         <v>500</v>
       </c>
-      <c r="R63" s="8">
-        <v>20</v>
-      </c>
       <c r="S63" s="8">
+        <v>20</v>
+      </c>
+      <c r="T63" s="8">
         <v>99999</v>
       </c>
-      <c r="T63" s="8">
+      <c r="U63" s="8">
         <v>120</v>
-      </c>
-      <c r="U63" s="8">
-        <v>0</v>
       </c>
       <c r="V63" s="8">
         <v>0</v>
       </c>
-      <c r="W63" s="8"/>
+      <c r="W63" s="8">
+        <v>0</v>
+      </c>
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
@@ -6651,68 +6852,71 @@
       <c r="AD63" s="8"/>
       <c r="AE63" s="8"/>
       <c r="AF63" s="8"/>
-      <c r="AI63" s="1">
+      <c r="AG63" s="8"/>
+      <c r="AJ63" s="1">
         <v>13</v>
       </c>
-      <c r="AJ63" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="2:32">
+      <c r="AK63" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="2:33">
       <c r="B64" s="7"/>
       <c r="C64" s="8">
         <v>39</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E64" s="8">
         <v>138</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8">
+        <v>85</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8">
         <v>8</v>
       </c>
-      <c r="L64" s="8">
+      <c r="M64" s="8">
         <v>60</v>
       </c>
-      <c r="M64" s="8">
-        <v>20</v>
-      </c>
-      <c r="N64" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8">
+      <c r="N64" s="8">
+        <v>20</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8">
         <v>10000</v>
       </c>
-      <c r="Q64" s="8">
+      <c r="R64" s="8">
         <v>500</v>
       </c>
-      <c r="R64" s="8">
-        <v>20</v>
-      </c>
       <c r="S64" s="8">
+        <v>20</v>
+      </c>
+      <c r="T64" s="8">
         <v>600</v>
       </c>
-      <c r="T64" s="8">
+      <c r="U64" s="8">
         <v>200</v>
       </c>
-      <c r="U64" s="8">
-        <v>20</v>
-      </c>
       <c r="V64" s="8">
         <v>20</v>
       </c>
-      <c r="W64" s="8"/>
+      <c r="W64" s="8">
+        <v>20</v>
+      </c>
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
@@ -6722,62 +6926,65 @@
       <c r="AD64" s="8"/>
       <c r="AE64" s="8"/>
       <c r="AF64" s="8"/>
-    </row>
-    <row r="65" spans="2:32">
+      <c r="AG64" s="8"/>
+    </row>
+    <row r="65" spans="2:33">
       <c r="B65" s="7"/>
       <c r="C65" s="8">
         <v>2040</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E65" s="8">
         <v>139</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8">
+        <v>85</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8">
         <v>8</v>
       </c>
-      <c r="L65" s="8">
+      <c r="M65" s="8">
         <v>60</v>
       </c>
-      <c r="M65" s="8">
-        <v>20</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8">
+      <c r="N65" s="8">
+        <v>20</v>
+      </c>
+      <c r="O65" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8">
         <v>20000</v>
       </c>
-      <c r="Q65" s="8">
+      <c r="R65" s="8">
         <v>1500</v>
       </c>
-      <c r="R65" s="8">
-        <v>20</v>
-      </c>
       <c r="S65" s="8">
+        <v>20</v>
+      </c>
+      <c r="T65" s="8">
         <v>2800</v>
       </c>
-      <c r="T65" s="8">
+      <c r="U65" s="8">
         <v>150</v>
       </c>
-      <c r="U65" s="8">
+      <c r="V65" s="8">
         <v>40</v>
       </c>
-      <c r="V65" s="8">
-        <v>20</v>
-      </c>
-      <c r="W65" s="8"/>
+      <c r="W65" s="8">
+        <v>20</v>
+      </c>
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
@@ -6787,64 +6994,67 @@
       <c r="AD65" s="8"/>
       <c r="AE65" s="8"/>
       <c r="AF65" s="8"/>
-    </row>
-    <row r="66" customFormat="1" spans="2:36">
+      <c r="AG65" s="8"/>
+    </row>
+    <row r="66" customFormat="1" spans="2:37">
       <c r="B66" s="7"/>
       <c r="C66" s="8">
         <v>41</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E66" s="8">
         <v>140</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8">
+        <v>85</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8">
         <v>8</v>
       </c>
-      <c r="L66" s="8">
+      <c r="M66" s="8">
         <v>65</v>
       </c>
-      <c r="M66" s="8">
-        <v>20</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8">
+      <c r="N66" s="8">
+        <v>20</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8">
         <v>10000</v>
       </c>
-      <c r="Q66" s="8">
+      <c r="R66" s="8">
         <v>1000</v>
       </c>
-      <c r="R66" s="8">
+      <c r="S66" s="8">
         <v>40</v>
       </c>
-      <c r="S66" s="8">
+      <c r="T66" s="8">
         <v>600</v>
       </c>
-      <c r="T66" s="8">
+      <c r="U66" s="8">
         <v>150</v>
       </c>
-      <c r="U66" s="8">
+      <c r="V66" s="8">
         <v>10</v>
       </c>
-      <c r="V66" s="8">
-        <v>20</v>
-      </c>
-      <c r="W66" s="8"/>
+      <c r="W66" s="8">
+        <v>20</v>
+      </c>
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
@@ -6854,70 +7064,73 @@
       <c r="AD66" s="8"/>
       <c r="AE66" s="8"/>
       <c r="AF66" s="8"/>
-      <c r="AI66" t="s">
-        <v>95</v>
-      </c>
+      <c r="AG66" s="8"/>
       <c r="AJ66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" customFormat="1" ht="14.25" spans="2:32">
+        <v>97</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" ht="14.25" spans="2:33">
       <c r="B67" s="7"/>
       <c r="C67" s="8">
         <v>42</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E67" s="8">
         <v>19</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8">
+        <v>255</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8">
         <v>3</v>
       </c>
-      <c r="L67" s="8">
+      <c r="M67" s="8">
         <v>65</v>
       </c>
-      <c r="M67" s="8">
-        <v>20</v>
-      </c>
-      <c r="N67" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8">
+      <c r="N67" s="8">
+        <v>20</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8">
         <v>10000</v>
       </c>
-      <c r="Q67" s="8">
+      <c r="R67" s="8">
         <v>500</v>
       </c>
-      <c r="R67" s="8">
-        <v>20</v>
-      </c>
       <c r="S67" s="8">
+        <v>20</v>
+      </c>
+      <c r="T67" s="8">
         <v>600</v>
       </c>
-      <c r="T67" s="8">
+      <c r="U67" s="8">
         <v>150</v>
       </c>
-      <c r="U67" s="8">
+      <c r="V67" s="8">
         <v>30</v>
       </c>
-      <c r="V67" s="8">
+      <c r="W67" s="8">
         <v>10</v>
       </c>
-      <c r="W67" s="8"/>
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
       <c r="Z67" s="8"/>
@@ -6927,62 +7140,65 @@
       <c r="AD67" s="8"/>
       <c r="AE67" s="8"/>
       <c r="AF67" s="8"/>
-    </row>
-    <row r="68" spans="2:32">
+      <c r="AG67" s="8"/>
+    </row>
+    <row r="68" spans="2:33">
       <c r="B68" s="7"/>
       <c r="C68" s="8">
         <v>43</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E68" s="8">
         <v>19</v>
       </c>
       <c r="F68" s="13"/>
       <c r="G68" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8">
+        <v>258</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8">
         <v>3</v>
       </c>
-      <c r="L68" s="8">
+      <c r="M68" s="8">
         <v>65</v>
       </c>
-      <c r="M68" s="8">
-        <v>20</v>
-      </c>
-      <c r="N68" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8">
+      <c r="N68" s="8">
+        <v>20</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8">
         <v>10000</v>
       </c>
-      <c r="Q68" s="8">
+      <c r="R68" s="8">
         <v>1000</v>
       </c>
-      <c r="R68" s="8">
+      <c r="S68" s="8">
         <v>30</v>
       </c>
-      <c r="S68" s="8">
+      <c r="T68" s="8">
         <v>600</v>
       </c>
-      <c r="T68" s="8">
+      <c r="U68" s="8">
         <v>150</v>
       </c>
-      <c r="U68" s="8">
+      <c r="V68" s="8">
         <v>5</v>
       </c>
-      <c r="V68" s="8">
-        <v>20</v>
-      </c>
-      <c r="W68" s="8"/>
+      <c r="W68" s="8">
+        <v>20</v>
+      </c>
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
@@ -6992,64 +7208,67 @@
       <c r="AD68" s="8"/>
       <c r="AE68" s="8"/>
       <c r="AF68" s="8"/>
-    </row>
-    <row r="69" spans="2:32">
+      <c r="AG68" s="8"/>
+    </row>
+    <row r="69" spans="2:33">
       <c r="B69" s="7"/>
       <c r="C69" s="8">
         <v>2044</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E69" s="8">
         <v>115</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8">
+        <v>160</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8">
         <v>10</v>
       </c>
-      <c r="L69" s="8">
+      <c r="M69" s="8">
         <v>70</v>
       </c>
-      <c r="M69" s="8">
-        <v>20</v>
-      </c>
-      <c r="N69" s="8" t="s">
-        <v>259</v>
+      <c r="N69" s="8">
+        <v>20</v>
       </c>
       <c r="O69" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="P69" s="8">
+        <v>261</v>
+      </c>
+      <c r="P69" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q69" s="8">
         <v>20000</v>
       </c>
-      <c r="Q69" s="8">
+      <c r="R69" s="8">
         <v>2000</v>
       </c>
-      <c r="R69" s="8">
+      <c r="S69" s="8">
         <v>30</v>
       </c>
-      <c r="S69" s="8">
+      <c r="T69" s="8">
         <v>10000</v>
       </c>
-      <c r="T69" s="8">
+      <c r="U69" s="8">
         <v>250</v>
       </c>
-      <c r="U69" s="8">
+      <c r="V69" s="8">
         <v>50</v>
       </c>
-      <c r="V69" s="8">
+      <c r="W69" s="8">
         <v>5</v>
       </c>
-      <c r="W69" s="8"/>
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
       <c r="Z69" s="8"/>
@@ -7059,62 +7278,65 @@
       <c r="AD69" s="8"/>
       <c r="AE69" s="8"/>
       <c r="AF69" s="8"/>
-    </row>
-    <row r="70" spans="2:32">
+      <c r="AG69" s="8"/>
+    </row>
+    <row r="70" spans="2:33">
       <c r="B70" s="7"/>
       <c r="C70" s="8">
         <v>45</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E70" s="8">
         <v>144</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8">
+        <v>85</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8">
         <v>8</v>
       </c>
-      <c r="L70" s="8">
+      <c r="M70" s="8">
         <v>75</v>
       </c>
-      <c r="M70" s="8">
-        <v>20</v>
-      </c>
-      <c r="N70" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8">
+      <c r="N70" s="8">
+        <v>20</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8">
         <v>20000</v>
       </c>
-      <c r="Q70" s="8">
+      <c r="R70" s="8">
         <v>500</v>
       </c>
-      <c r="R70" s="8">
+      <c r="S70" s="8">
         <v>50</v>
       </c>
-      <c r="S70" s="8">
+      <c r="T70" s="8">
         <v>600</v>
       </c>
-      <c r="T70" s="8">
+      <c r="U70" s="8">
         <v>150</v>
       </c>
-      <c r="U70" s="8">
+      <c r="V70" s="8">
         <v>5</v>
       </c>
-      <c r="V70" s="8">
+      <c r="W70" s="8">
         <v>0</v>
       </c>
-      <c r="W70" s="8"/>
       <c r="X70" s="8"/>
       <c r="Y70" s="8"/>
       <c r="Z70" s="8"/>
@@ -7124,182 +7346,191 @@
       <c r="AD70" s="8"/>
       <c r="AE70" s="8"/>
       <c r="AF70" s="8"/>
-    </row>
-    <row r="71" customFormat="1" spans="2:36">
+      <c r="AG70" s="8"/>
+    </row>
+    <row r="71" customFormat="1" spans="2:37">
       <c r="B71" s="7"/>
       <c r="C71" s="8">
         <v>46</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E71" s="8">
         <v>19</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8">
+        <v>85</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8">
         <v>3</v>
       </c>
-      <c r="L71" s="8">
+      <c r="M71" s="8">
         <v>75</v>
       </c>
-      <c r="M71" s="8">
-        <v>20</v>
-      </c>
-      <c r="N71" s="8" t="s">
-        <v>263</v>
+      <c r="N71" s="8">
+        <v>20</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="P71" s="8">
+        <v>265</v>
+      </c>
+      <c r="P71" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q71" s="8">
         <v>20000</v>
       </c>
-      <c r="Q71" s="8">
+      <c r="R71" s="8">
         <v>500</v>
       </c>
-      <c r="R71" s="8">
-        <v>20</v>
-      </c>
       <c r="S71" s="8">
+        <v>20</v>
+      </c>
+      <c r="T71" s="8">
         <v>600</v>
       </c>
-      <c r="T71" s="8">
+      <c r="U71" s="8">
         <v>100</v>
       </c>
-      <c r="U71" s="8">
+      <c r="V71" s="8">
         <v>40</v>
       </c>
-      <c r="V71" s="8">
+      <c r="W71" s="8">
         <v>10</v>
       </c>
-      <c r="AI71" t="s">
-        <v>118</v>
-      </c>
       <c r="AJ71" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="2:22">
+        <v>120</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" customFormat="1" spans="2:23">
       <c r="B72" s="7"/>
       <c r="C72" s="8">
         <v>47</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E72" s="8">
         <v>146</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8">
+        <v>85</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8">
         <v>5</v>
       </c>
-      <c r="L72" s="8">
+      <c r="M72" s="8">
         <v>75</v>
       </c>
-      <c r="M72" s="8">
-        <v>20</v>
-      </c>
-      <c r="N72" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8">
+      <c r="N72" s="8">
+        <v>20</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8">
         <v>20000</v>
       </c>
-      <c r="Q72" s="8">
+      <c r="R72" s="8">
         <v>500</v>
       </c>
-      <c r="R72" s="8">
+      <c r="S72" s="8">
         <v>30</v>
       </c>
-      <c r="S72" s="8">
+      <c r="T72" s="8">
         <v>800</v>
       </c>
-      <c r="T72" s="8">
+      <c r="U72" s="8">
         <v>150</v>
-      </c>
-      <c r="U72" s="8">
-        <v>10</v>
       </c>
       <c r="V72" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:32">
+      <c r="W72" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:33">
       <c r="B73" s="7"/>
       <c r="C73" s="8">
         <v>2048</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E73" s="8">
         <v>19</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8">
+        <v>160</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8">
         <v>5</v>
       </c>
-      <c r="L73" s="8">
-        <v>20</v>
-      </c>
       <c r="M73" s="8">
         <v>20</v>
       </c>
-      <c r="N73" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8">
+      <c r="N73" s="8">
+        <v>20</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8">
         <v>2000</v>
       </c>
-      <c r="Q73" s="8">
+      <c r="R73" s="8">
         <v>1000</v>
       </c>
-      <c r="R73" s="8">
+      <c r="S73" s="8">
         <v>30</v>
       </c>
-      <c r="S73" s="8">
+      <c r="T73" s="8">
         <v>350</v>
       </c>
-      <c r="T73" s="8">
-        <v>20</v>
-      </c>
       <c r="U73" s="8">
+        <v>20</v>
+      </c>
+      <c r="V73" s="8">
         <v>50</v>
       </c>
-      <c r="V73" s="8">
+      <c r="W73" s="8">
         <v>5</v>
       </c>
-      <c r="W73" s="8"/>
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
       <c r="Z73" s="8"/>
@@ -7309,62 +7540,65 @@
       <c r="AD73" s="8"/>
       <c r="AE73" s="8"/>
       <c r="AF73" s="8"/>
-    </row>
-    <row r="74" spans="2:32">
+      <c r="AG73" s="8"/>
+    </row>
+    <row r="74" spans="2:33">
       <c r="B74" s="7"/>
       <c r="C74" s="8">
         <v>2049</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E74" s="8">
         <v>18</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8">
+        <v>160</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8">
         <v>8</v>
       </c>
-      <c r="L74" s="8">
+      <c r="M74" s="8">
         <v>25</v>
       </c>
-      <c r="M74" s="8">
-        <v>20</v>
-      </c>
-      <c r="N74" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8">
+      <c r="N74" s="8">
+        <v>20</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8">
         <v>2000</v>
       </c>
-      <c r="Q74" s="8">
+      <c r="R74" s="8">
         <v>500</v>
       </c>
-      <c r="R74" s="8">
+      <c r="S74" s="8">
         <v>1000</v>
       </c>
-      <c r="S74" s="8">
+      <c r="T74" s="8">
         <v>400</v>
       </c>
-      <c r="T74" s="8">
+      <c r="U74" s="8">
         <v>40</v>
       </c>
-      <c r="U74" s="8">
+      <c r="V74" s="8">
         <v>5</v>
       </c>
-      <c r="V74" s="8">
+      <c r="W74" s="8">
         <v>0</v>
       </c>
-      <c r="W74" s="8"/>
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
       <c r="Z74" s="8"/>
@@ -7374,54 +7608,55 @@
       <c r="AD74" s="8"/>
       <c r="AE74" s="8"/>
       <c r="AF74" s="8"/>
-    </row>
-    <row r="75" spans="2:36">
+      <c r="AG74" s="8"/>
+    </row>
+    <row r="75" spans="2:37">
       <c r="B75" s="7"/>
       <c r="C75" s="8">
         <v>50</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E75" s="8">
         <v>19</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8">
+        <v>274</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8">
         <v>8</v>
       </c>
-      <c r="L75" s="8">
+      <c r="M75" s="8">
         <v>55</v>
       </c>
-      <c r="M75" s="8">
-        <v>20</v>
-      </c>
-      <c r="N75" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8">
+      <c r="N75" s="8">
+        <v>20</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8">
         <v>10000</v>
       </c>
-      <c r="Q75" s="8">
+      <c r="R75" s="8">
         <v>1500</v>
       </c>
-      <c r="R75" s="8">
-        <v>20</v>
-      </c>
       <c r="S75" s="8">
+        <v>20</v>
+      </c>
+      <c r="T75" s="8">
         <v>1</v>
-      </c>
-      <c r="T75" s="8">
-        <v>0</v>
       </c>
       <c r="U75" s="8">
         <v>0</v>
@@ -7429,7 +7664,9 @@
       <c r="V75" s="8">
         <v>0</v>
       </c>
-      <c r="W75" s="8"/>
+      <c r="W75" s="8">
+        <v>0</v>
+      </c>
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
       <c r="Z75" s="8"/>
@@ -7439,60 +7676,61 @@
       <c r="AD75" s="8"/>
       <c r="AE75" s="8"/>
       <c r="AF75" s="8"/>
-      <c r="AI75" s="1">
+      <c r="AG75" s="8"/>
+      <c r="AJ75" s="1">
         <v>13</v>
       </c>
-      <c r="AJ75" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" spans="2:36">
+      <c r="AK75" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" spans="2:37">
       <c r="B76" s="7"/>
       <c r="C76" s="8">
         <v>51</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E76" s="8">
         <v>19</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8">
+        <v>278</v>
+      </c>
+      <c r="J76" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8">
         <v>8</v>
       </c>
-      <c r="L76" s="8">
+      <c r="M76" s="8">
         <v>55</v>
       </c>
-      <c r="M76" s="8">
-        <v>20</v>
-      </c>
-      <c r="N76" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8">
+      <c r="N76" s="8">
+        <v>20</v>
+      </c>
+      <c r="O76" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8">
         <v>10000</v>
       </c>
-      <c r="Q76" s="8">
+      <c r="R76" s="8">
         <v>1500</v>
       </c>
-      <c r="R76" s="8">
-        <v>20</v>
-      </c>
       <c r="S76" s="8">
+        <v>20</v>
+      </c>
+      <c r="T76" s="8">
         <v>1</v>
-      </c>
-      <c r="T76" s="8">
-        <v>0</v>
       </c>
       <c r="U76" s="8">
         <v>0</v>
@@ -7500,7 +7738,9 @@
       <c r="V76" s="8">
         <v>0</v>
       </c>
-      <c r="W76" s="8"/>
+      <c r="W76" s="8">
+        <v>0</v>
+      </c>
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
@@ -7510,66 +7750,69 @@
       <c r="AD76" s="8"/>
       <c r="AE76" s="8"/>
       <c r="AF76" s="8"/>
-      <c r="AI76" s="1">
+      <c r="AG76" s="8"/>
+      <c r="AJ76" s="1">
         <v>13</v>
       </c>
-      <c r="AJ76" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" spans="2:36">
+      <c r="AK76" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" spans="2:37">
       <c r="B77" s="7"/>
       <c r="C77" s="8">
         <v>52</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E77" s="8">
         <v>19</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8">
+        <v>278</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8">
         <v>8</v>
       </c>
-      <c r="L77" s="8">
+      <c r="M77" s="8">
         <v>55</v>
       </c>
-      <c r="M77" s="8">
-        <v>20</v>
-      </c>
-      <c r="N77" s="8"/>
+      <c r="N77" s="8">
+        <v>20</v>
+      </c>
       <c r="O77" s="8"/>
-      <c r="P77" s="8">
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8">
         <v>10000</v>
       </c>
-      <c r="Q77" s="8">
+      <c r="R77" s="8">
         <v>1500</v>
       </c>
-      <c r="R77" s="8">
-        <v>20</v>
-      </c>
       <c r="S77" s="8">
+        <v>20</v>
+      </c>
+      <c r="T77" s="8">
         <v>1</v>
-      </c>
-      <c r="T77" s="8">
-        <v>0</v>
       </c>
       <c r="U77" s="8">
         <v>0</v>
       </c>
       <c r="V77" s="8">
+        <v>0</v>
+      </c>
+      <c r="W77" s="8">
         <v>99999</v>
       </c>
-      <c r="W77" s="8"/>
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
       <c r="Z77" s="8"/>
@@ -7579,60 +7822,61 @@
       <c r="AD77" s="8"/>
       <c r="AE77" s="8"/>
       <c r="AF77" s="8"/>
-      <c r="AI77" s="1">
+      <c r="AG77" s="8"/>
+      <c r="AJ77" s="1">
         <v>13</v>
       </c>
-      <c r="AJ77" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" spans="2:36">
+      <c r="AK77" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" spans="2:37">
       <c r="B78" s="7"/>
       <c r="C78" s="8">
         <v>53</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E78" s="8">
         <v>19</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8">
+        <v>284</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8">
         <v>8</v>
       </c>
-      <c r="L78" s="8">
+      <c r="M78" s="8">
         <v>55</v>
       </c>
-      <c r="M78" s="8">
-        <v>20</v>
-      </c>
-      <c r="N78" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8">
+      <c r="N78" s="8">
+        <v>20</v>
+      </c>
+      <c r="O78" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8">
         <v>10000</v>
       </c>
-      <c r="Q78" s="8">
+      <c r="R78" s="8">
         <v>1500</v>
       </c>
-      <c r="R78" s="8">
-        <v>20</v>
-      </c>
       <c r="S78" s="8">
+        <v>20</v>
+      </c>
+      <c r="T78" s="8">
         <v>1</v>
-      </c>
-      <c r="T78" s="8">
-        <v>0</v>
       </c>
       <c r="U78" s="8">
         <v>0</v>
@@ -7640,7 +7884,9 @@
       <c r="V78" s="8">
         <v>0</v>
       </c>
-      <c r="W78" s="8"/>
+      <c r="W78" s="8">
+        <v>0</v>
+      </c>
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
       <c r="Z78" s="8"/>
@@ -7650,60 +7896,61 @@
       <c r="AD78" s="8"/>
       <c r="AE78" s="8"/>
       <c r="AF78" s="8"/>
-      <c r="AI78" s="1">
+      <c r="AG78" s="8"/>
+      <c r="AJ78" s="1">
         <v>13</v>
       </c>
-      <c r="AJ78" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" spans="2:36">
+      <c r="AK78" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" spans="2:37">
       <c r="B79" s="7"/>
       <c r="C79" s="8">
         <v>54</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E79" s="8">
         <v>19</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8">
+        <v>288</v>
+      </c>
+      <c r="J79" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8">
         <v>8</v>
       </c>
-      <c r="L79" s="8">
+      <c r="M79" s="8">
         <v>55</v>
       </c>
-      <c r="M79" s="8">
-        <v>20</v>
-      </c>
-      <c r="N79" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8">
+      <c r="N79" s="8">
+        <v>20</v>
+      </c>
+      <c r="O79" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8">
         <v>10000</v>
       </c>
-      <c r="Q79" s="8">
+      <c r="R79" s="8">
         <v>1500</v>
       </c>
-      <c r="R79" s="8">
-        <v>20</v>
-      </c>
       <c r="S79" s="8">
+        <v>20</v>
+      </c>
+      <c r="T79" s="8">
         <v>1</v>
-      </c>
-      <c r="T79" s="8">
-        <v>0</v>
       </c>
       <c r="U79" s="8">
         <v>0</v>
@@ -7711,7 +7958,9 @@
       <c r="V79" s="8">
         <v>0</v>
       </c>
-      <c r="W79" s="8"/>
+      <c r="W79" s="8">
+        <v>0</v>
+      </c>
       <c r="X79" s="8"/>
       <c r="Y79" s="8"/>
       <c r="Z79" s="8"/>
@@ -7721,68 +7970,71 @@
       <c r="AD79" s="8"/>
       <c r="AE79" s="8"/>
       <c r="AF79" s="8"/>
-      <c r="AI79" s="1">
+      <c r="AG79" s="8"/>
+      <c r="AJ79" s="1">
         <v>13</v>
       </c>
-      <c r="AJ79" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" spans="2:36">
+      <c r="AK79" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" spans="2:37">
       <c r="B80" s="7"/>
       <c r="C80" s="8">
         <v>55</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E80" s="8">
         <v>19</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="J80" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8">
+        <v>8</v>
+      </c>
+      <c r="M80" s="8">
+        <v>55</v>
+      </c>
+      <c r="N80" s="8">
+        <v>20</v>
+      </c>
+      <c r="O80" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8">
-        <v>8</v>
-      </c>
-      <c r="L80" s="8">
-        <v>55</v>
-      </c>
-      <c r="M80" s="8">
-        <v>20</v>
-      </c>
-      <c r="N80" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8">
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8">
         <v>10000</v>
       </c>
-      <c r="Q80" s="8">
+      <c r="R80" s="8">
         <v>1500</v>
       </c>
-      <c r="R80" s="8">
-        <v>20</v>
-      </c>
       <c r="S80" s="8">
+        <v>20</v>
+      </c>
+      <c r="T80" s="8">
         <v>1</v>
-      </c>
-      <c r="T80" s="8">
-        <v>0</v>
       </c>
       <c r="U80" s="8">
         <v>0</v>
       </c>
       <c r="V80" s="8">
+        <v>0</v>
+      </c>
+      <c r="W80" s="8">
         <v>99999</v>
       </c>
-      <c r="W80" s="8"/>
       <c r="X80" s="8"/>
       <c r="Y80" s="8"/>
       <c r="Z80" s="8"/>
@@ -7792,68 +8044,71 @@
       <c r="AD80" s="8"/>
       <c r="AE80" s="8"/>
       <c r="AF80" s="8"/>
-      <c r="AI80" s="1">
+      <c r="AG80" s="8"/>
+      <c r="AJ80" s="1">
         <v>13</v>
       </c>
-      <c r="AJ80" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" spans="2:36">
+      <c r="AK80" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" spans="2:37">
       <c r="B81" s="7"/>
       <c r="C81" s="8">
         <v>56</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E81" s="8">
         <v>19</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8">
+        <v>294</v>
+      </c>
+      <c r="J81" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8">
         <v>8</v>
       </c>
-      <c r="L81" s="8">
+      <c r="M81" s="8">
         <v>55</v>
       </c>
-      <c r="M81" s="8">
-        <v>20</v>
-      </c>
-      <c r="N81" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8">
+      <c r="N81" s="8">
+        <v>20</v>
+      </c>
+      <c r="O81" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="P81" s="8"/>
+      <c r="Q81" s="8">
         <v>10000</v>
       </c>
-      <c r="Q81" s="8">
+      <c r="R81" s="8">
         <v>1500</v>
       </c>
-      <c r="R81" s="8">
-        <v>20</v>
-      </c>
       <c r="S81" s="8">
+        <v>20</v>
+      </c>
+      <c r="T81" s="8">
         <v>1</v>
-      </c>
-      <c r="T81" s="8">
-        <v>0</v>
       </c>
       <c r="U81" s="8">
         <v>0</v>
       </c>
       <c r="V81" s="8">
+        <v>0</v>
+      </c>
+      <c r="W81" s="8">
         <v>99999</v>
       </c>
-      <c r="W81" s="8"/>
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
       <c r="Z81" s="8"/>
@@ -7863,68 +8118,71 @@
       <c r="AD81" s="8"/>
       <c r="AE81" s="8"/>
       <c r="AF81" s="8"/>
-      <c r="AI81" s="1">
+      <c r="AG81" s="8"/>
+      <c r="AJ81" s="1">
         <v>13</v>
       </c>
-      <c r="AJ81" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" spans="2:36">
+      <c r="AK81" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" spans="2:37">
       <c r="B82" s="7"/>
       <c r="C82" s="8">
         <v>57</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E82" s="8">
         <v>19</v>
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8">
+        <v>298</v>
+      </c>
+      <c r="J82" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8">
         <v>8</v>
       </c>
-      <c r="L82" s="8">
+      <c r="M82" s="8">
         <v>55</v>
       </c>
-      <c r="M82" s="8">
-        <v>20</v>
-      </c>
-      <c r="N82" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8">
+      <c r="N82" s="8">
+        <v>20</v>
+      </c>
+      <c r="O82" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="P82" s="8"/>
+      <c r="Q82" s="8">
         <v>10000</v>
       </c>
-      <c r="Q82" s="8">
+      <c r="R82" s="8">
         <v>1500</v>
       </c>
-      <c r="R82" s="8">
-        <v>20</v>
-      </c>
       <c r="S82" s="8">
+        <v>20</v>
+      </c>
+      <c r="T82" s="8">
         <v>1</v>
-      </c>
-      <c r="T82" s="8">
-        <v>0</v>
       </c>
       <c r="U82" s="8">
         <v>0</v>
       </c>
       <c r="V82" s="8">
+        <v>0</v>
+      </c>
+      <c r="W82" s="8">
         <v>99999</v>
       </c>
-      <c r="W82" s="8"/>
       <c r="X82" s="8"/>
       <c r="Y82" s="8"/>
       <c r="Z82" s="8"/>
@@ -7934,68 +8192,71 @@
       <c r="AD82" s="8"/>
       <c r="AE82" s="8"/>
       <c r="AF82" s="8"/>
-      <c r="AI82" s="1">
+      <c r="AG82" s="8"/>
+      <c r="AJ82" s="1">
         <v>13</v>
       </c>
-      <c r="AJ82" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" spans="2:36">
+      <c r="AK82" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" spans="2:37">
       <c r="B83" s="7"/>
       <c r="C83" s="8">
         <v>58</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E83" s="8">
         <v>19</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="13" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8">
+        <v>301</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8">
         <v>8</v>
       </c>
-      <c r="L83" s="8">
+      <c r="M83" s="8">
         <v>55</v>
       </c>
-      <c r="M83" s="8">
-        <v>20</v>
-      </c>
-      <c r="N83" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8">
+      <c r="N83" s="8">
+        <v>20</v>
+      </c>
+      <c r="O83" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="P83" s="8"/>
+      <c r="Q83" s="8">
         <v>10000</v>
       </c>
-      <c r="Q83" s="8">
+      <c r="R83" s="8">
         <v>1500</v>
       </c>
-      <c r="R83" s="8">
-        <v>20</v>
-      </c>
       <c r="S83" s="8">
+        <v>20</v>
+      </c>
+      <c r="T83" s="8">
         <v>1</v>
-      </c>
-      <c r="T83" s="8">
-        <v>0</v>
       </c>
       <c r="U83" s="8">
         <v>0</v>
       </c>
       <c r="V83" s="8">
+        <v>0</v>
+      </c>
+      <c r="W83" s="8">
         <v>99999</v>
       </c>
-      <c r="W83" s="8"/>
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
       <c r="Z83" s="8"/>
@@ -8005,68 +8266,71 @@
       <c r="AD83" s="8"/>
       <c r="AE83" s="8"/>
       <c r="AF83" s="8"/>
-      <c r="AI83" s="1">
+      <c r="AG83" s="8"/>
+      <c r="AJ83" s="1">
         <v>13</v>
       </c>
-      <c r="AJ83" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" s="1" customFormat="1" ht="14.25" spans="2:36">
+      <c r="AK83" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" ht="14.25" spans="2:37">
       <c r="B84" s="7"/>
       <c r="C84" s="8">
         <v>59</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E84" s="8">
         <v>19</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8">
+        <v>304</v>
+      </c>
+      <c r="J84" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8">
         <v>8</v>
       </c>
-      <c r="L84" s="8">
+      <c r="M84" s="8">
         <v>55</v>
       </c>
-      <c r="M84" s="8">
-        <v>20</v>
-      </c>
-      <c r="N84" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8">
+      <c r="N84" s="8">
+        <v>20</v>
+      </c>
+      <c r="O84" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8">
         <v>10000</v>
       </c>
-      <c r="Q84" s="8">
+      <c r="R84" s="8">
         <v>1500</v>
       </c>
-      <c r="R84" s="8">
-        <v>20</v>
-      </c>
       <c r="S84" s="8">
+        <v>20</v>
+      </c>
+      <c r="T84" s="8">
         <v>100</v>
       </c>
-      <c r="T84" s="8">
+      <c r="U84" s="8">
         <v>10</v>
-      </c>
-      <c r="U84" s="8">
-        <v>0</v>
       </c>
       <c r="V84" s="8">
         <v>0</v>
       </c>
-      <c r="W84" s="8"/>
+      <c r="W84" s="8">
+        <v>0</v>
+      </c>
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
       <c r="Z84" s="8"/>
@@ -8076,68 +8340,71 @@
       <c r="AD84" s="8"/>
       <c r="AE84" s="8"/>
       <c r="AF84" s="8"/>
-      <c r="AI84" s="1">
+      <c r="AG84" s="8"/>
+      <c r="AJ84" s="1">
         <v>13</v>
       </c>
-      <c r="AJ84" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" s="1" customFormat="1" ht="14.25" spans="2:36">
+      <c r="AK84" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="14.25" spans="2:37">
       <c r="B85" s="7"/>
       <c r="C85" s="8">
         <v>60</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E85" s="8">
         <v>19</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="13" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8">
+        <v>307</v>
+      </c>
+      <c r="J85" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8">
         <v>8</v>
       </c>
-      <c r="L85" s="8">
+      <c r="M85" s="8">
         <v>55</v>
       </c>
-      <c r="M85" s="8">
-        <v>20</v>
-      </c>
-      <c r="N85" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8">
+      <c r="N85" s="8">
+        <v>20</v>
+      </c>
+      <c r="O85" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8">
         <v>10000</v>
       </c>
-      <c r="Q85" s="8">
+      <c r="R85" s="8">
         <v>1500</v>
       </c>
-      <c r="R85" s="8">
-        <v>20</v>
-      </c>
       <c r="S85" s="8">
+        <v>20</v>
+      </c>
+      <c r="T85" s="8">
         <v>100</v>
       </c>
-      <c r="T85" s="8">
+      <c r="U85" s="8">
         <v>10</v>
-      </c>
-      <c r="U85" s="8">
-        <v>0</v>
       </c>
       <c r="V85" s="8">
         <v>0</v>
       </c>
-      <c r="W85" s="8"/>
+      <c r="W85" s="8">
+        <v>0</v>
+      </c>
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
       <c r="Z85" s="8"/>
@@ -8147,11 +8414,86 @@
       <c r="AD85" s="8"/>
       <c r="AE85" s="8"/>
       <c r="AF85" s="8"/>
-      <c r="AI85" s="1">
+      <c r="AG85" s="8"/>
+      <c r="AJ85" s="1">
         <v>13</v>
       </c>
-      <c r="AJ85" s="14" t="s">
-        <v>85</v>
+      <c r="AK85" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" ht="14.25" spans="2:37">
+      <c r="B86" s="7"/>
+      <c r="C86" s="8">
+        <v>61</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E86" s="8">
+        <v>19</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="H86" s="8"/>
+      <c r="I86" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8">
+        <v>8</v>
+      </c>
+      <c r="M86" s="8">
+        <v>55</v>
+      </c>
+      <c r="N86" s="8">
+        <v>20</v>
+      </c>
+      <c r="O86" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8">
+        <v>10000</v>
+      </c>
+      <c r="R86" s="8">
+        <v>1500</v>
+      </c>
+      <c r="S86" s="8">
+        <v>20</v>
+      </c>
+      <c r="T86" s="8">
+        <v>200</v>
+      </c>
+      <c r="U86" s="8">
+        <v>10</v>
+      </c>
+      <c r="V86" s="8">
+        <v>0</v>
+      </c>
+      <c r="W86" s="8">
+        <v>0</v>
+      </c>
+      <c r="X86" s="8"/>
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="8"/>
+      <c r="AB86" s="8"/>
+      <c r="AC86" s="8"/>
+      <c r="AD86" s="8"/>
+      <c r="AE86" s="8"/>
+      <c r="AF86" s="8"/>
+      <c r="AG86" s="8"/>
+      <c r="AJ86" s="1">
+        <v>13</v>
+      </c>
+      <c r="AK86" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -8180,12 +8522,12 @@
   <sheetData>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8222,20 +8564,20 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B26" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -8267,10 +8609,10 @@
     <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -8279,10 +8621,10 @@
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -8295,43 +8637,43 @@
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -8910,10 +9252,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="2:10">
       <c r="B1" s="2" t="s">
-        <v>313</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -8942,7 +9284,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:8">
@@ -8962,67 +9304,67 @@
         <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:8">
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
       <c r="B5" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:8">
       <c r="B6" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -9035,14 +9377,14 @@
         <v>20001</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H7" s="8">
         <v>100</v>
@@ -9054,14 +9396,14 @@
         <v>20002</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H8" s="8">
         <v>100</v>
@@ -9073,14 +9415,14 @@
         <v>20003</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H9" s="8">
         <v>100</v>
@@ -9092,14 +9434,14 @@
         <v>20004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H10" s="8">
         <v>100</v>
@@ -9111,14 +9453,14 @@
         <v>20005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H11" s="8">
         <v>100</v>
@@ -9130,14 +9472,14 @@
         <v>20006</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H12" s="8">
         <v>100</v>
@@ -9149,14 +9491,14 @@
         <v>20007</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H13" s="8">
         <v>100</v>
@@ -9168,14 +9510,14 @@
         <v>20008</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H14" s="8">
         <v>100</v>
@@ -9187,14 +9529,14 @@
         <v>20009</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H15" s="8">
         <v>100</v>

--- a/配置表/G怪物配置表2.xlsx
+++ b/配置表/G怪物配置表2.xlsx
@@ -2332,8 +2332,12 @@
   <sheetPr/>
   <dimension ref="B1:AK86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E63" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane xSplit="2970" ySplit="2445" topLeftCell="P71" activePane="bottomRight"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="T86" sqref="T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8468,7 +8472,7 @@
         <v>20</v>
       </c>
       <c r="T86" s="8">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="U86" s="8">
         <v>10</v>

--- a/配置表/G怪物配置表2.xlsx
+++ b/配置表/G怪物配置表2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="怪物战斗基础表" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="怪物等级经验表" sheetId="3" r:id="rId3"/>
     <sheet name="场景Npc配置" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349">
   <si>
     <t>MonsterFightConfig</t>
   </si>
@@ -1104,6 +1104,30 @@
     <t>TowerAI</t>
   </si>
   <si>
+    <t>温泉</t>
+  </si>
+  <si>
+    <t>models/Spring</t>
+  </si>
+  <si>
+    <t>springConfig</t>
+  </si>
+  <si>
+    <t>SpringAI</t>
+  </si>
+  <si>
+    <t>水晶</t>
+  </si>
+  <si>
+    <t>models/MainTower</t>
+  </si>
+  <si>
+    <t>mainTowerConfig</t>
+  </si>
+  <si>
+    <t>MainTowerAI</t>
+  </si>
+  <si>
     <t>按照血量百分比释放的技能</t>
   </si>
   <si>
@@ -1199,10 +1223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1224,8 +1248,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1240,21 +1287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1267,9 +1300,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1292,29 +1385,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1322,54 +1392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1408,7 +1432,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,37 +1528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,43 +1546,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,31 +1582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,25 +1594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,12 +1613,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,15 +1654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1650,56 +1665,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1722,6 +1687,65 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1732,148 +1756,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2330,14 +2354,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:AK86"/>
+  <dimension ref="B1:AK88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane xSplit="2970" ySplit="2445" topLeftCell="P71" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane xSplit="12420" ySplit="5130" topLeftCell="A65" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T86" sqref="T86"/>
+      <selection pane="bottomLeft" activeCell="T87" sqref="T87"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8324,7 +8348,7 @@
         <v>20</v>
       </c>
       <c r="T84" s="8">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="U84" s="8">
         <v>10</v>
@@ -8472,7 +8496,7 @@
         <v>20</v>
       </c>
       <c r="T86" s="8">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="U86" s="8">
         <v>10</v>
@@ -8497,6 +8521,154 @@
         <v>13</v>
       </c>
       <c r="AK86" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="14.25" spans="2:37">
+      <c r="B87" s="7"/>
+      <c r="C87" s="8">
+        <v>62</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E87" s="8">
+        <v>19</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="H87" s="8"/>
+      <c r="I87" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8">
+        <v>8</v>
+      </c>
+      <c r="M87" s="8">
+        <v>55</v>
+      </c>
+      <c r="N87" s="8">
+        <v>20</v>
+      </c>
+      <c r="O87" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8">
+        <v>10000</v>
+      </c>
+      <c r="R87" s="8">
+        <v>1500</v>
+      </c>
+      <c r="S87" s="8">
+        <v>20</v>
+      </c>
+      <c r="T87" s="8">
+        <v>500</v>
+      </c>
+      <c r="U87" s="8">
+        <v>10</v>
+      </c>
+      <c r="V87" s="8">
+        <v>0</v>
+      </c>
+      <c r="W87" s="8">
+        <v>0</v>
+      </c>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="8"/>
+      <c r="AA87" s="8"/>
+      <c r="AB87" s="8"/>
+      <c r="AC87" s="8"/>
+      <c r="AD87" s="8"/>
+      <c r="AE87" s="8"/>
+      <c r="AF87" s="8"/>
+      <c r="AG87" s="8"/>
+      <c r="AJ87" s="1">
+        <v>13</v>
+      </c>
+      <c r="AK87" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" ht="14.25" spans="2:37">
+      <c r="B88" s="7"/>
+      <c r="C88" s="8">
+        <v>63</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="E88" s="8">
+        <v>19</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="H88" s="8"/>
+      <c r="I88" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="J88" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8">
+        <v>8</v>
+      </c>
+      <c r="M88" s="8">
+        <v>55</v>
+      </c>
+      <c r="N88" s="8">
+        <v>20</v>
+      </c>
+      <c r="O88" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8">
+        <v>10000</v>
+      </c>
+      <c r="R88" s="8">
+        <v>1500</v>
+      </c>
+      <c r="S88" s="8">
+        <v>20</v>
+      </c>
+      <c r="T88" s="8">
+        <v>10</v>
+      </c>
+      <c r="U88" s="8">
+        <v>10</v>
+      </c>
+      <c r="V88" s="8">
+        <v>0</v>
+      </c>
+      <c r="W88" s="8">
+        <v>0</v>
+      </c>
+      <c r="X88" s="8"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="8"/>
+      <c r="AA88" s="8"/>
+      <c r="AB88" s="8"/>
+      <c r="AC88" s="8"/>
+      <c r="AD88" s="8"/>
+      <c r="AE88" s="8"/>
+      <c r="AF88" s="8"/>
+      <c r="AG88" s="8"/>
+      <c r="AJ88" s="1">
+        <v>13</v>
+      </c>
+      <c r="AK88" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8526,12 +8698,12 @@
   <sheetData>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8568,20 +8740,20 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -8613,10 +8785,10 @@
     <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -8625,10 +8797,10 @@
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -9259,7 +9431,7 @@
         <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -9288,7 +9460,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:8">
@@ -9311,7 +9483,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:8">
@@ -9334,7 +9506,7 @@
         <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
@@ -9381,14 +9553,14 @@
         <v>20001</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H7" s="8">
         <v>100</v>
@@ -9400,14 +9572,14 @@
         <v>20002</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H8" s="8">
         <v>100</v>
@@ -9419,14 +9591,14 @@
         <v>20003</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H9" s="8">
         <v>100</v>
@@ -9438,14 +9610,14 @@
         <v>20004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H10" s="8">
         <v>100</v>
@@ -9457,14 +9629,14 @@
         <v>20005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>327</v>
       </c>
       <c r="H11" s="8">
         <v>100</v>
@@ -9476,14 +9648,14 @@
         <v>20006</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H12" s="8">
         <v>100</v>
@@ -9495,14 +9667,14 @@
         <v>20007</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H13" s="8">
         <v>100</v>
@@ -9514,14 +9686,14 @@
         <v>20008</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="H14" s="8">
         <v>100</v>
@@ -9533,14 +9705,14 @@
         <v>20009</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="H15" s="8">
         <v>100</v>

--- a/配置表/G怪物配置表2.xlsx
+++ b/配置表/G怪物配置表2.xlsx
@@ -1223,10 +1223,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1248,9 +1248,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1265,29 +1287,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,14 +1308,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1319,6 +1327,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1338,49 +1361,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1392,8 +1383,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,7 +1432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,7 +1444,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1456,7 +1516,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,31 +1546,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,37 +1576,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,7 +1588,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,55 +1606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,21 +1654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1694,6 +1679,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1711,23 +1735,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1742,162 +1751,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2356,12 +2356,12 @@
   <sheetPr/>
   <dimension ref="B1:AK88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane xSplit="12420" ySplit="5130" topLeftCell="A65" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="12420" ySplit="5130" topLeftCell="Q71" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="T87" sqref="T87"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="U89" sqref="U89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8348,10 +8348,10 @@
         <v>20</v>
       </c>
       <c r="T84" s="8">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="U84" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V84" s="8">
         <v>0</v>
@@ -8422,10 +8422,10 @@
         <v>20</v>
       </c>
       <c r="T85" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="U85" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V85" s="8">
         <v>0</v>
@@ -8496,10 +8496,10 @@
         <v>20</v>
       </c>
       <c r="T86" s="8">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="U86" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V86" s="8">
         <v>0</v>
@@ -8570,10 +8570,10 @@
         <v>20</v>
       </c>
       <c r="T87" s="8">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="U87" s="8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="V87" s="8">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>20</v>
       </c>
       <c r="T88" s="8">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="U88" s="8">
         <v>10</v>

--- a/配置表/G怪物配置表2.xlsx
+++ b/配置表/G怪物配置表2.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355">
   <si>
     <t>MonsterFightConfig</t>
   </si>
@@ -1128,6 +1128,24 @@
     <t>MainTowerAI</t>
   </si>
   <si>
+    <t>Moba蓝色远程小兵</t>
+  </si>
+  <si>
+    <t>models/Creep_Archer_Blue</t>
+  </si>
+  <si>
+    <t>ArcherConfig</t>
+  </si>
+  <si>
+    <t>Moba红色远程小兵</t>
+  </si>
+  <si>
+    <t>models/Creep_Archer_Red</t>
+  </si>
+  <si>
+    <t>ArcherConfig2</t>
+  </si>
+  <si>
     <t>按照血量百分比释放的技能</t>
   </si>
   <si>
@@ -1223,10 +1241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1248,8 +1266,114 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1264,120 +1388,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1391,9 +1403,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,121 +1450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,7 +1474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,7 +1498,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1588,31 +1624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,45 +1672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1704,6 +1683,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1734,15 +1722,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1751,153 +1730,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2354,14 +2372,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:AK88"/>
+  <dimension ref="B1:AK90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12420" ySplit="5130" topLeftCell="Q71" activePane="bottomRight"/>
+      <pane xSplit="12420" ySplit="5130" topLeftCell="H75" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U89" sqref="U89"/>
+      <selection pane="bottomRight" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8672,6 +8690,154 @@
         <v>87</v>
       </c>
     </row>
+    <row r="89" s="1" customFormat="1" ht="14.25" spans="2:37">
+      <c r="B89" s="7"/>
+      <c r="C89" s="8">
+        <v>64</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="E89" s="8">
+        <v>19</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="H89" s="8"/>
+      <c r="I89" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="J89" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8">
+        <v>8</v>
+      </c>
+      <c r="M89" s="8">
+        <v>55</v>
+      </c>
+      <c r="N89" s="8">
+        <v>20</v>
+      </c>
+      <c r="O89" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8">
+        <v>10000</v>
+      </c>
+      <c r="R89" s="8">
+        <v>1500</v>
+      </c>
+      <c r="S89" s="8">
+        <v>20</v>
+      </c>
+      <c r="T89" s="8">
+        <v>50</v>
+      </c>
+      <c r="U89" s="8">
+        <v>5</v>
+      </c>
+      <c r="V89" s="8">
+        <v>0</v>
+      </c>
+      <c r="W89" s="8">
+        <v>0</v>
+      </c>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="8"/>
+      <c r="AB89" s="8"/>
+      <c r="AC89" s="8"/>
+      <c r="AD89" s="8"/>
+      <c r="AE89" s="8"/>
+      <c r="AF89" s="8"/>
+      <c r="AG89" s="8"/>
+      <c r="AJ89" s="1">
+        <v>13</v>
+      </c>
+      <c r="AK89" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="14.25" spans="2:37">
+      <c r="B90" s="7"/>
+      <c r="C90" s="8">
+        <v>65</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="E90" s="8">
+        <v>19</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="H90" s="8"/>
+      <c r="I90" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8">
+        <v>8</v>
+      </c>
+      <c r="M90" s="8">
+        <v>55</v>
+      </c>
+      <c r="N90" s="8">
+        <v>20</v>
+      </c>
+      <c r="O90" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8">
+        <v>10000</v>
+      </c>
+      <c r="R90" s="8">
+        <v>1500</v>
+      </c>
+      <c r="S90" s="8">
+        <v>20</v>
+      </c>
+      <c r="T90" s="8">
+        <v>50</v>
+      </c>
+      <c r="U90" s="8">
+        <v>5</v>
+      </c>
+      <c r="V90" s="8">
+        <v>0</v>
+      </c>
+      <c r="W90" s="8">
+        <v>0</v>
+      </c>
+      <c r="X90" s="8"/>
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="8"/>
+      <c r="AB90" s="8"/>
+      <c r="AC90" s="8"/>
+      <c r="AD90" s="8"/>
+      <c r="AE90" s="8"/>
+      <c r="AF90" s="8"/>
+      <c r="AG90" s="8"/>
+      <c r="AJ90" s="1">
+        <v>13</v>
+      </c>
+      <c r="AK90" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8698,12 +8864,12 @@
   <sheetData>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8740,20 +8906,20 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B26" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -8785,10 +8951,10 @@
     <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -8797,10 +8963,10 @@
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -9431,7 +9597,7 @@
         <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -9460,7 +9626,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:8">
@@ -9483,7 +9649,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:8">
@@ -9506,7 +9672,7 @@
         <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
@@ -9553,14 +9719,14 @@
         <v>20001</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H7" s="8">
         <v>100</v>
@@ -9572,14 +9738,14 @@
         <v>20002</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H8" s="8">
         <v>100</v>
@@ -9591,14 +9757,14 @@
         <v>20003</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H9" s="8">
         <v>100</v>
@@ -9610,14 +9776,14 @@
         <v>20004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="H10" s="8">
         <v>100</v>
@@ -9629,14 +9795,14 @@
         <v>20005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H11" s="8">
         <v>100</v>
@@ -9648,14 +9814,14 @@
         <v>20006</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H12" s="8">
         <v>100</v>
@@ -9667,14 +9833,14 @@
         <v>20007</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H13" s="8">
         <v>100</v>
@@ -9686,14 +9852,14 @@
         <v>20008</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H14" s="8">
         <v>100</v>
@@ -9705,14 +9871,14 @@
         <v>20009</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H15" s="8">
         <v>100</v>

--- a/配置表/G怪物配置表2.xlsx
+++ b/配置表/G怪物配置表2.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361">
   <si>
     <t>MonsterFightConfig</t>
   </si>
@@ -1146,6 +1146,24 @@
     <t>ArcherConfig2</t>
   </si>
   <si>
+    <t>Moba蓝色小炮</t>
+  </si>
+  <si>
+    <t>models/Siege_Creep_Blue</t>
+  </si>
+  <si>
+    <t>PaoConfig</t>
+  </si>
+  <si>
+    <t>Moba红色小炮</t>
+  </si>
+  <si>
+    <t>models/Siege_Creep_Red</t>
+  </si>
+  <si>
+    <t>PaoConfig2</t>
+  </si>
+  <si>
     <t>按照血量百分比释放的技能</t>
   </si>
   <si>
@@ -1241,10 +1259,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1266,70 +1284,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1356,6 +1312,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1364,10 +1342,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1381,7 +1391,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1389,7 +1413,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,15 +1427,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1450,55 +1468,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,7 +1498,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1528,19 +1528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,13 +1552,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1582,55 +1642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,6 +1690,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1691,51 +1753,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1754,168 +1787,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2372,14 +2390,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:AK90"/>
+  <dimension ref="B1:AK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12420" ySplit="5130" topLeftCell="H75" activePane="bottomRight"/>
+      <pane xSplit="12420" ySplit="5130" topLeftCell="Q78" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I91" sqref="I91"/>
+      <selection pane="bottomRight" activeCell="T87" sqref="T87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8514,7 +8532,7 @@
         <v>20</v>
       </c>
       <c r="T86" s="8">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="U86" s="8">
         <v>15</v>
@@ -8835,6 +8853,154 @@
         <v>13</v>
       </c>
       <c r="AK90" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="14.25" spans="2:37">
+      <c r="B91" s="7"/>
+      <c r="C91" s="8">
+        <v>66</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E91" s="8">
+        <v>19</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="H91" s="8"/>
+      <c r="I91" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="J91" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8">
+        <v>8</v>
+      </c>
+      <c r="M91" s="8">
+        <v>55</v>
+      </c>
+      <c r="N91" s="8">
+        <v>20</v>
+      </c>
+      <c r="O91" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8">
+        <v>10000</v>
+      </c>
+      <c r="R91" s="8">
+        <v>1500</v>
+      </c>
+      <c r="S91" s="8">
+        <v>20</v>
+      </c>
+      <c r="T91" s="8">
+        <v>50</v>
+      </c>
+      <c r="U91" s="8">
+        <v>10</v>
+      </c>
+      <c r="V91" s="8">
+        <v>0</v>
+      </c>
+      <c r="W91" s="8">
+        <v>0</v>
+      </c>
+      <c r="X91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="8"/>
+      <c r="AA91" s="8"/>
+      <c r="AB91" s="8"/>
+      <c r="AC91" s="8"/>
+      <c r="AD91" s="8"/>
+      <c r="AE91" s="8"/>
+      <c r="AF91" s="8"/>
+      <c r="AG91" s="8"/>
+      <c r="AJ91" s="1">
+        <v>13</v>
+      </c>
+      <c r="AK91" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="14.25" spans="2:37">
+      <c r="B92" s="7"/>
+      <c r="C92" s="8">
+        <v>67</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="E92" s="8">
+        <v>19</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="H92" s="8"/>
+      <c r="I92" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="J92" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8">
+        <v>8</v>
+      </c>
+      <c r="M92" s="8">
+        <v>55</v>
+      </c>
+      <c r="N92" s="8">
+        <v>20</v>
+      </c>
+      <c r="O92" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8">
+        <v>10000</v>
+      </c>
+      <c r="R92" s="8">
+        <v>1500</v>
+      </c>
+      <c r="S92" s="8">
+        <v>20</v>
+      </c>
+      <c r="T92" s="8">
+        <v>50</v>
+      </c>
+      <c r="U92" s="8">
+        <v>10</v>
+      </c>
+      <c r="V92" s="8">
+        <v>0</v>
+      </c>
+      <c r="W92" s="8">
+        <v>0</v>
+      </c>
+      <c r="X92" s="8"/>
+      <c r="Y92" s="8"/>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="8"/>
+      <c r="AB92" s="8"/>
+      <c r="AC92" s="8"/>
+      <c r="AD92" s="8"/>
+      <c r="AE92" s="8"/>
+      <c r="AF92" s="8"/>
+      <c r="AG92" s="8"/>
+      <c r="AJ92" s="1">
+        <v>13</v>
+      </c>
+      <c r="AK92" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8864,12 +9030,12 @@
   <sheetData>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -8906,20 +9072,20 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B26" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -8951,10 +9117,10 @@
     <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -8963,10 +9129,10 @@
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -9597,7 +9763,7 @@
         <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -9626,7 +9792,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:8">
@@ -9649,7 +9815,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:8">
@@ -9672,7 +9838,7 @@
         <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
@@ -9719,14 +9885,14 @@
         <v>20001</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H7" s="8">
         <v>100</v>
@@ -9738,14 +9904,14 @@
         <v>20002</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H8" s="8">
         <v>100</v>
@@ -9757,14 +9923,14 @@
         <v>20003</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H9" s="8">
         <v>100</v>
@@ -9776,14 +9942,14 @@
         <v>20004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>341</v>
       </c>
       <c r="H10" s="8">
         <v>100</v>
@@ -9795,14 +9961,14 @@
         <v>20005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H11" s="8">
         <v>100</v>
@@ -9814,14 +9980,14 @@
         <v>20006</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H12" s="8">
         <v>100</v>
@@ -9833,14 +9999,14 @@
         <v>20007</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H13" s="8">
         <v>100</v>
@@ -9852,14 +10018,14 @@
         <v>20008</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H14" s="8">
         <v>100</v>
@@ -9871,14 +10037,14 @@
         <v>20009</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H15" s="8">
         <v>100</v>

--- a/配置表/G怪物配置表2.xlsx
+++ b/配置表/G怪物配置表2.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365">
   <si>
     <t>MonsterFightConfig</t>
   </si>
@@ -1162,6 +1162,18 @@
   </si>
   <si>
     <t>PaoConfig2</t>
+  </si>
+  <si>
+    <t>小怪1号</t>
+  </si>
+  <si>
+    <t>models/CrawlingBug-Blue</t>
+  </si>
+  <si>
+    <t>XiaoGuaiConfig</t>
+  </si>
+  <si>
+    <t>XiaoGuaiAI</t>
   </si>
   <si>
     <t>按照血量百分比释放的技能</t>
@@ -2390,14 +2402,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:AK92"/>
+  <dimension ref="B1:AK93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="12420" ySplit="5130" topLeftCell="Q78" activePane="bottomRight"/>
+      <pane xSplit="12420" ySplit="5130" topLeftCell="G78" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T87" sqref="T87"/>
+      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9004,6 +9016,80 @@
         <v>87</v>
       </c>
     </row>
+    <row r="93" s="1" customFormat="1" ht="14.25" spans="2:37">
+      <c r="B93" s="7"/>
+      <c r="C93" s="8">
+        <v>68</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E93" s="8">
+        <v>19</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="H93" s="8"/>
+      <c r="I93" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="J93" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8">
+        <v>8</v>
+      </c>
+      <c r="M93" s="8">
+        <v>55</v>
+      </c>
+      <c r="N93" s="8">
+        <v>20</v>
+      </c>
+      <c r="O93" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8">
+        <v>10000</v>
+      </c>
+      <c r="R93" s="8">
+        <v>1500</v>
+      </c>
+      <c r="S93" s="8">
+        <v>20</v>
+      </c>
+      <c r="T93" s="8">
+        <v>50</v>
+      </c>
+      <c r="U93" s="8">
+        <v>10</v>
+      </c>
+      <c r="V93" s="8">
+        <v>0</v>
+      </c>
+      <c r="W93" s="8">
+        <v>0</v>
+      </c>
+      <c r="X93" s="8"/>
+      <c r="Y93" s="8"/>
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="8"/>
+      <c r="AB93" s="8"/>
+      <c r="AC93" s="8"/>
+      <c r="AD93" s="8"/>
+      <c r="AE93" s="8"/>
+      <c r="AF93" s="8"/>
+      <c r="AG93" s="8"/>
+      <c r="AJ93" s="1">
+        <v>13</v>
+      </c>
+      <c r="AK93" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9030,12 +9116,12 @@
   <sheetData>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -9072,20 +9158,20 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B26" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -9117,10 +9203,10 @@
     <row r="1" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -9129,10 +9215,10 @@
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -9763,7 +9849,7 @@
         <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -9792,7 +9878,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:8">
@@ -9815,7 +9901,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:8">
@@ -9838,7 +9924,7 @@
         <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:8">
@@ -9885,14 +9971,14 @@
         <v>20001</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H7" s="8">
         <v>100</v>
@@ -9904,14 +9990,14 @@
         <v>20002</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H8" s="8">
         <v>100</v>
@@ -9923,14 +10009,14 @@
         <v>20003</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="H9" s="8">
         <v>100</v>
@@ -9942,14 +10028,14 @@
         <v>20004</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H10" s="8">
         <v>100</v>
@@ -9961,14 +10047,14 @@
         <v>20005</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H11" s="8">
         <v>100</v>
@@ -9980,14 +10066,14 @@
         <v>20006</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H12" s="8">
         <v>100</v>
@@ -9999,14 +10085,14 @@
         <v>20007</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H13" s="8">
         <v>100</v>
@@ -10018,14 +10104,14 @@
         <v>20008</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H14" s="8">
         <v>100</v>
@@ -10037,14 +10123,14 @@
         <v>20009</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H15" s="8">
         <v>100</v>
